--- a/Excel/CF4W/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/CF4W/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" firstSheet="1" tabRatio="769" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="18" firstSheet="14" tabRatio="769" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" r:id="rId1" sheetId="5"/>
@@ -3252,7 +3252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4586" uniqueCount="3224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4602" uniqueCount="3233">
   <si>
     <t>Count</t>
   </si>
@@ -11694,9 +11694,6 @@
     <t>Loading</t>
   </si>
   <si>
-    <t>6478500</t>
-  </si>
-  <si>
     <t>pt asap</t>
   </si>
   <si>
@@ -11934,15 +11931,6 @@
     <t>2;1;3.37</t>
   </si>
   <si>
-    <t>6478501</t>
-  </si>
-  <si>
-    <t>6478502</t>
-  </si>
-  <si>
-    <t>6478503</t>
-  </si>
-  <si>
     <t>6478504</t>
   </si>
   <si>
@@ -12864,9 +12852,6 @@
     <t>IBU FT ASEP</t>
   </si>
   <si>
-    <t>14.688525</t>
-  </si>
-  <si>
     <t>Testing</t>
   </si>
   <si>
@@ -12876,9 +12861,6 @@
     <t>Run DupCheck</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
     <t>Select SimilarData</t>
   </si>
   <si>
@@ -12915,7 +12897,52 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>0002APP20221206283</t>
+    <t>ARKZANDRE;</t>
+  </si>
+  <si>
+    <t>PT ASAP</t>
+  </si>
+  <si>
+    <t>Supplier;Supplier</t>
+  </si>
+  <si>
+    <t>MRA SUPPLIER COMPANY;MRA SUPPLIER COMPANY</t>
+  </si>
+  <si>
+    <t>Subsidy DP;Discount Insurance</t>
+  </si>
+  <si>
+    <t>AP Deduction;AP Deduction</t>
+  </si>
+  <si>
+    <t>Amount;Amount</t>
+  </si>
+  <si>
+    <t>0;0</t>
+  </si>
+  <si>
+    <t>300000;200000</t>
+  </si>
+  <si>
+    <t>Pelangi Utama</t>
+  </si>
+  <si>
+    <t>;PT ASAP</t>
+  </si>
+  <si>
+    <t>DP Nett Percentage</t>
+  </si>
+  <si>
+    <t>Provision Fee Calculation</t>
+  </si>
+  <si>
+    <t>0002APP20221206343</t>
+  </si>
+  <si>
+    <t>14.692906</t>
+  </si>
+  <si>
+    <t>0002APP20221206347</t>
   </si>
   <si>
     <t>SUCCESS</t>
@@ -12924,23 +12951,24 @@
     <t>FAILED</t>
   </si>
   <si>
-    <t>0002APP20221206284</t>
-  </si>
-  <si>
-    <t>ARKZANDRE;</t>
-  </si>
-  <si>
-    <t>-;Failed Store DB;Failed Store DB</t>
+    <t>-;Failed Verify Match / Equal</t>
+  </si>
+  <si>
+    <t>Button Save Tidak Berfungsi</t>
+  </si>
+  <si>
+    <t>14.694827</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -13662,7 +13690,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="15" fillId="0" fontId="0" numFmtId="1" xfId="2"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="1" xfId="2"/>
     <xf applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="1" xfId="2"/>
     <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="21" fillId="0" fontId="0" numFmtId="1" xfId="2"/>
     <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="14" fillId="0" fontId="0" numFmtId="1" xfId="2"/>
@@ -13675,6 +13702,7 @@
     </xf>
     <xf applyBorder="1" applyFill="1" borderId="1" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="166" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -16333,7 +16361,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16350,13 +16378,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>3039</v>
+        <v>3035</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>3037</v>
+        <v>3033</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>3038</v>
+        <v>3034</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -16371,7 +16399,7 @@
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <f>COUNTA('1.TabCustomerMainData'!$B$12:$XFD$12)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="16">
         <f>COUNTA('2.TabManagementShareholderData'!B12:XFD12)</f>
@@ -16383,11 +16411,11 @@
       </c>
       <c r="D2" s="16">
         <f>COUNTA('3b.TabGuarantorDataCompany'!B12:XFD12)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1">
         <f>COUNTA('5.TabReferantorData'!B12:XFD12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1">
         <f>COUNTA('7a.Accessories'!B12:XFD12)</f>
@@ -16400,24 +16428,24 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>3036</v>
+        <v>3032</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>3070</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>3071</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>3072</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>3074</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>3075</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>3076</v>
-      </c>
-      <c r="E4" s="32" t="s">
-        <v>3078</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
-        <v>3202</v>
+        <v>3197</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>31</v>
@@ -16426,7 +16454,7 @@
         <v>40</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E5" s="32" t="s">
         <v>31</v>
@@ -16450,7 +16478,7 @@
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="A43" sqref="A43"/>
-      <selection activeCell="C8" pane="topRight" sqref="C8"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16464,8 +16492,8 @@
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>6</v>
+      <c r="B1" t="s">
+        <v>3228</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>6</v>
@@ -16491,7 +16519,7 @@
     </row>
     <row customFormat="1" r="2" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>2588</v>
@@ -16520,12 +16548,12 @@
     </row>
     <row customFormat="1" r="3" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="B4" s="16">
         <f ref="B4:G4" si="0" t="shared">COUNTIFS($A$12:$A$15,"*$*",B12:B15,"")+COUNTIFS($A$17:$A$20,"*$*",B17:B20,"")+COUNTIFS($A$25:$A$26,"*$*",B25:B26,"")+COUNTIFS($A$35,"*$*",B35,"")+IF(B18="Used",COUNTIFS($A$29:$A$33,"*$*",B29:B33,""),0)+IF(B26="Percentage",COUNTIFS($A$27,"*$*",B27,""),COUNTIFS($A$28,"*$*",B28,""))+IF(B37="No",COUNTIFS($A$38:$A$39,"*$*",B38:B39,""),0)+IF(AND(B41="No",B42="Personal"),COUNTIFS($A$42:$A$44,"*$*",B42:B44,"")+COUNTIFS($A$48:$A$49,"*$*",B48:B49,""),0)+IF(AND(B41="No",B42="Company"),COUNTIFS($A$42:$A$44,"*$*",B42:B44,"")+COUNTIFS($A$47:$A$49,"*$*",B47:B49,""),0)+IF(B52="Yes",COUNTIFS($A$53,"*$*",B53,""),0)+IF(B52="No",COUNTIFS($A$54:$A$60,"*$*",B54:B60,""),0)</f>
@@ -16563,20 +16591,20 @@
         <f>'1.TabCustomerMainData'!B$13</f>
         <v>0002APP20221206120</v>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="16">
         <f>'1.TabCustomerMainData'!C$13</f>
-        <v>0002APP20221206273</v>
+        <v>0</v>
       </c>
     </row>
     <row customFormat="1" r="9" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row customFormat="1" r="10" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="B10" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -16598,13 +16626,13 @@
     </row>
     <row customFormat="1" r="12" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>2977</v>
+        <v>2973</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -16613,7 +16641,7 @@
     </row>
     <row customFormat="1" r="13" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>2978</v>
+        <v>2974</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>2691</v>
@@ -16636,7 +16664,7 @@
     </row>
     <row customFormat="1" r="14" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>2979</v>
+        <v>2975</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>2615</v>
@@ -16693,7 +16721,7 @@
     </row>
     <row customFormat="1" r="17" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>2980</v>
+        <v>2976</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>2620</v>
@@ -16702,27 +16730,27 @@
         <v>2620</v>
       </c>
       <c r="D17" s="16" t="s">
+        <v>2837</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>2838</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="F17" s="16" t="s">
         <v>2839</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="G17" s="16" t="s">
         <v>2840</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>2841</v>
       </c>
     </row>
     <row customFormat="1" r="18" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>2981</v>
+        <v>2977</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>3158</v>
+        <v>3154</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>3158</v>
+        <v>3154</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>2785</v>
@@ -16739,7 +16767,7 @@
     </row>
     <row customFormat="1" r="19" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>2982</v>
+        <v>2978</v>
       </c>
       <c r="B19" s="40">
         <v>1000000000</v>
@@ -16762,7 +16790,7 @@
     </row>
     <row customFormat="1" r="20" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>2983</v>
+        <v>2979</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>2686</v>
@@ -16859,7 +16887,7 @@
     </row>
     <row customFormat="1" r="25" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>2984</v>
+        <v>2980</v>
       </c>
       <c r="B25" s="5">
         <v>2020</v>
@@ -16882,7 +16910,7 @@
     </row>
     <row customFormat="1" r="26" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="43" t="s">
-        <v>2985</v>
+        <v>2981</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>104</v>
@@ -16905,7 +16933,7 @@
     </row>
     <row customFormat="1" r="27" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
-        <v>2986</v>
+        <v>2982</v>
       </c>
       <c r="B27" s="8">
         <v>35</v>
@@ -16928,7 +16956,7 @@
     </row>
     <row customFormat="1" r="28" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>2987</v>
+        <v>2983</v>
       </c>
       <c r="B28" s="40">
         <v>350000000</v>
@@ -16951,7 +16979,7 @@
     </row>
     <row customFormat="1" r="29" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="43" t="s">
-        <v>2988</v>
+        <v>2984</v>
       </c>
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
@@ -16970,7 +16998,7 @@
     </row>
     <row customFormat="1" r="30" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="43" t="s">
-        <v>2989</v>
+        <v>2985</v>
       </c>
       <c r="B30" s="61"/>
       <c r="C30" s="61"/>
@@ -16989,7 +17017,7 @@
     </row>
     <row customFormat="1" r="31" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="43" t="s">
-        <v>2990</v>
+        <v>2986</v>
       </c>
       <c r="B31" s="61"/>
       <c r="C31" s="61"/>
@@ -17008,7 +17036,7 @@
     </row>
     <row customFormat="1" r="32" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="43" t="s">
-        <v>2991</v>
+        <v>2987</v>
       </c>
       <c r="B32" s="61"/>
       <c r="C32" s="61"/>
@@ -17027,7 +17055,7 @@
     </row>
     <row customFormat="1" r="33" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="43" t="s">
-        <v>2992</v>
+        <v>2988</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -17049,25 +17077,25 @@
     </row>
     <row customFormat="1" r="35" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="43" t="s">
-        <v>2993</v>
+        <v>2989</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>2617</v>
       </c>
       <c r="C35" s="5" t="s">
+        <v>2841</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>2842</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="5" t="s">
         <v>2843</v>
       </c>
-      <c r="E35" s="5" t="s">
+      <c r="F35" s="5" t="s">
         <v>2844</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="G35" s="5" t="s">
         <v>2845</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>2846</v>
       </c>
     </row>
     <row customFormat="1" r="36" s="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -17086,7 +17114,7 @@
         <v>95</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>40</v>
@@ -17106,7 +17134,7 @@
     </row>
     <row customFormat="1" r="38" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>2994</v>
+        <v>2990</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>2720</v>
@@ -17129,7 +17157,7 @@
     </row>
     <row customFormat="1" r="39" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
-        <v>2995</v>
+        <v>2991</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>267</v>
@@ -17166,7 +17194,7 @@
         <v>96</v>
       </c>
       <c r="B41" s="16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>40</v>
@@ -17186,7 +17214,7 @@
     </row>
     <row customFormat="1" r="42" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
-        <v>2996</v>
+        <v>2992</v>
       </c>
       <c r="B42" s="16" t="s">
         <v>38</v>
@@ -17209,10 +17237,10 @@
     </row>
     <row customFormat="1" r="43" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
-        <v>2997</v>
+        <v>2993</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>3063</v>
+        <v>3059</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>2682</v>
@@ -17232,7 +17260,7 @@
     </row>
     <row customFormat="1" r="44" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
-        <v>2998</v>
+        <v>2994</v>
       </c>
       <c r="B44" s="16" t="s">
         <v>43</v>
@@ -17315,7 +17343,7 @@
     </row>
     <row customFormat="1" r="48" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
-        <v>2999</v>
+        <v>2995</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>13</v>
@@ -17338,7 +17366,7 @@
     </row>
     <row customFormat="1" r="49" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="44" t="s">
-        <v>3000</v>
+        <v>2996</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>2680</v>
@@ -17382,7 +17410,7 @@
     </row>
     <row customFormat="1" r="51" s="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="93" t="s">
-        <v>2949</v>
+        <v>2945</v>
       </c>
       <c r="B51" s="94"/>
       <c r="C51" s="94"/>
@@ -17396,7 +17424,7 @@
         <v>30</v>
       </c>
       <c r="B52" s="16" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C52" s="16" t="s">
         <v>40</v>
@@ -17416,7 +17444,7 @@
     </row>
     <row customFormat="1" r="53" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="44" t="s">
-        <v>3001</v>
+        <v>2997</v>
       </c>
       <c r="B53" s="16" t="s">
         <v>102</v>
@@ -17439,7 +17467,7 @@
     </row>
     <row customFormat="1" r="54" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="44" t="s">
-        <v>2911</v>
+        <v>2907</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>2683</v>
@@ -17462,7 +17490,7 @@
     </row>
     <row customFormat="1" r="55" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="44" t="s">
-        <v>2912</v>
+        <v>2908</v>
       </c>
       <c r="B55" s="2">
         <v>1</v>
@@ -17485,7 +17513,7 @@
     </row>
     <row customFormat="1" r="56" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="44" t="s">
-        <v>2913</v>
+        <v>2909</v>
       </c>
       <c r="B56" s="2">
         <v>1</v>
@@ -17508,7 +17536,7 @@
     </row>
     <row customFormat="1" r="57" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="44" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
       <c r="B57" s="2">
         <v>40242</v>
@@ -17531,7 +17559,7 @@
     </row>
     <row customFormat="1" r="58" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="44" t="s">
-        <v>2916</v>
+        <v>2912</v>
       </c>
       <c r="B58" s="16" t="s">
         <v>2612</v>
@@ -17554,7 +17582,7 @@
     </row>
     <row customFormat="1" r="59" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="44" t="s">
-        <v>2915</v>
+        <v>2911</v>
       </c>
       <c r="B59" s="16" t="s">
         <v>2613</v>
@@ -17577,7 +17605,7 @@
     </row>
     <row customFormat="1" r="60" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="44" t="s">
-        <v>2947</v>
+        <v>2943</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>2681</v>
@@ -17611,7 +17639,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="108" t="s">
-        <v>3002</v>
+        <v>2998</v>
       </c>
       <c r="B62" s="32" t="s">
         <v>31</v>
@@ -17635,18 +17663,18 @@
     </row>
     <row customFormat="1" r="63" s="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="143" t="s">
-        <v>3092</v>
+        <v>3088</v>
       </c>
       <c r="B63" s="144"/>
     </row>
     <row customFormat="1" r="64" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>3093</v>
+        <v>3089</v>
       </c>
     </row>
     <row customFormat="1" r="65" s="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>3094</v>
+        <v>3090</v>
       </c>
     </row>
     <row customFormat="1" r="66" s="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -17656,19 +17684,19 @@
     </row>
     <row customFormat="1" r="67" s="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>3095</v>
+        <v>3091</v>
       </c>
       <c r="B67" s="5"/>
     </row>
     <row customFormat="1" r="68" s="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="143" t="s">
-        <v>3106</v>
+        <v>3102</v>
       </c>
       <c r="B68" s="144"/>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="115" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="B69" s="116">
         <f>IF(B26 = "Percentage",B27,B28/B19*100)</f>
@@ -17681,7 +17709,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="115" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
       <c r="B70" s="116">
         <f>IF(B26 = "Amount", B28, B19*B27%)</f>
@@ -17931,8 +17959,8 @@
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>6</v>
+      <c r="B1" t="s">
+        <v>3228</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>6</v>
@@ -17958,7 +17986,7 @@
     </row>
     <row customFormat="1" r="2" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>2588</v>
@@ -17987,12 +18015,12 @@
     </row>
     <row customFormat="1" r="3" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="B4" s="16">
         <f>IF(B18="Amount",COUNTIFS($A13:$A18,"*$*",B13:B18,"")+COUNTIFS($A20:$A20,"*$*",B20:B20,""),IF(B18="Percentage",COUNTIFS($A13:$A18,"*$*",B13:B18,"")+COUNTIFS($A19:$A19,"*$*",B19:B19,"")))</f>
@@ -18022,20 +18050,20 @@
         <v>5</v>
       </c>
       <c r="B12" s="16" t="str">
-        <f>'1.TabCustomerMainData'!C$13</f>
-        <v>0002APP20221206273</v>
+        <f>'1.TabCustomerMainData'!B$13</f>
+        <v>0002APP20221206321</v>
       </c>
       <c r="C12" s="37"/>
     </row>
     <row customFormat="1" r="13" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>3064</v>
+        <v>3060</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>3066</v>
+        <v>3062</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
@@ -18045,7 +18073,7 @@
     </row>
     <row customFormat="1" r="14" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>2978</v>
+        <v>2974</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>2691</v>
@@ -18071,13 +18099,13 @@
     </row>
     <row customFormat="1" r="15" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>3065</v>
+        <v>3061</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>3090</v>
+        <v>3086</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>3067</v>
+        <v>3063</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -18087,10 +18115,10 @@
     </row>
     <row customFormat="1" r="16" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>3003</v>
+        <v>2999</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>3091</v>
+        <v>3087</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>2618</v>
@@ -18113,7 +18141,7 @@
     </row>
     <row customFormat="1" r="17" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
-        <v>3004</v>
+        <v>3000</v>
       </c>
       <c r="B17" s="23">
         <v>1000000</v>
@@ -18139,7 +18167,7 @@
     </row>
     <row customFormat="1" r="18" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>2985</v>
+        <v>2981</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>104</v>
@@ -18165,7 +18193,7 @@
     </row>
     <row customFormat="1" r="19" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>2986</v>
+        <v>2982</v>
       </c>
       <c r="B19" s="16">
         <v>12</v>
@@ -18191,7 +18219,7 @@
     </row>
     <row customFormat="1" r="20" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>2987</v>
+        <v>2983</v>
       </c>
       <c r="B20" s="23">
         <v>120000</v>
@@ -18222,13 +18250,13 @@
     </row>
     <row customFormat="1" r="22" s="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="143" t="s">
-        <v>3106</v>
+        <v>3102</v>
       </c>
       <c r="B22" s="144"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="115" t="s">
-        <v>3099</v>
+        <v>3095</v>
       </c>
       <c r="B23" s="116">
         <f>IF(B18="Percentage",B19,B20/B17*100)</f>
@@ -18241,7 +18269,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="115" t="s">
-        <v>3098</v>
+        <v>3094</v>
       </c>
       <c r="B24" s="116">
         <f>IF(B18="Amount",B20,B17*B19%)</f>
@@ -18309,7 +18337,7 @@
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="A10" sqref="A10"/>
-      <selection activeCell="C4" pane="topRight" sqref="C4"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18323,8 +18351,8 @@
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>6</v>
+      <c r="B1" t="s">
+        <v>3229</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>6</v>
@@ -18353,10 +18381,10 @@
     </row>
     <row customFormat="1" r="2" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>2588</v>
+        <v>2812</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3231</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>2588</v>
@@ -18385,12 +18413,12 @@
     </row>
     <row customFormat="1" r="3" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="B4" s="16">
         <f>IF(B12="Customer",COUNTIFS($A12:$A20,"*$*",B12:B20,""),IF(B12="Off System",COUNTIFS($A12:$A12,"*$*",B12:B12,""),IF(AND(B12="Multifinance",OR(B24="Over Tenor",B24="Partial Tenor")),COUNTIFS($A12:$A12,"*$*",B12:B12,"")+COUNTIFS($A22:$A42,"*$*",B22:B42,""),IF(AND(B12="Multifinance",OR(B24="Full Tenor",B24="Annualy")),COUNTIFS($A12:$A12,"*$*",B12:B12,"")+COUNTIFS($A22:$A26,"*$*",B22:B26,"")+COUNTIFS($A34:$A42,"*$*",B34:B42,""),IF(AND(B12="Customer - Multifinance",OR(B24="Over Tenor",B24="Partial Tenor")),COUNTIFS($A12:$A42,"*$*",B12:B42,""),IF(AND(B12="Customer - Multifinance",OR(B24="Full Tenor",B24="Annualy")),COUNTIFS($A12:$A26,"*$*",B12:B26,"")+COUNTIFS($A34:$A42,"*$*",B34:B42,"")))))))</f>
@@ -18412,21 +18440,21 @@
         <f>'1.TabCustomerMainData'!B$13</f>
         <v>0002APP20221206120</v>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="16">
         <f>'1.TabCustomerMainData'!C$13</f>
-        <v>0002APP20221206273</v>
+        <v>0</v>
       </c>
     </row>
     <row customFormat="1" r="9" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
     </row>
     <row customFormat="1" r="10" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="B10" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -18448,7 +18476,7 @@
     </row>
     <row customFormat="1" r="12" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>3006</v>
+        <v>3002</v>
       </c>
       <c r="B12" s="16" t="s">
         <v>105</v>
@@ -18478,7 +18506,7 @@
     </row>
     <row customFormat="1" r="14" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>3007</v>
+        <v>3003</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>2684</v>
@@ -18498,7 +18526,7 @@
     </row>
     <row customFormat="1" r="15" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>3008</v>
+        <v>3004</v>
       </c>
       <c r="B15" s="22">
         <v>700000000</v>
@@ -18528,7 +18556,7 @@
     </row>
     <row customFormat="1" r="18" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>3009</v>
+        <v>3005</v>
       </c>
       <c r="B18" s="55">
         <v>44197</v>
@@ -18548,7 +18576,7 @@
     </row>
     <row customFormat="1" r="19" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>3010</v>
+        <v>3006</v>
       </c>
       <c r="B19" s="55">
         <v>44741</v>
@@ -18583,7 +18611,7 @@
     </row>
     <row customFormat="1" r="22" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="44" t="s">
-        <v>2993</v>
+        <v>2989</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>190</v>
@@ -18598,12 +18626,12 @@
         <v>256</v>
       </c>
       <c r="F22" s="16" t="s">
-        <v>2847</v>
+        <v>2846</v>
       </c>
     </row>
     <row customFormat="1" r="23" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
-        <v>3008</v>
+        <v>3004</v>
       </c>
       <c r="B23" s="22">
         <v>300000000</v>
@@ -18623,7 +18651,7 @@
     </row>
     <row customFormat="1" r="24" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
-        <v>3011</v>
+        <v>3007</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>110</v>
@@ -18643,7 +18671,7 @@
     </row>
     <row customFormat="1" r="25" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>3012</v>
+        <v>3008</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>187</v>
@@ -18663,7 +18691,7 @@
     </row>
     <row customFormat="1" r="26" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>3007</v>
+        <v>3003</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>376</v>
@@ -18672,13 +18700,13 @@
         <v>240</v>
       </c>
       <c r="D26" s="16" t="s">
+        <v>2847</v>
+      </c>
+      <c r="E26" s="16" t="s">
         <v>2848</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="F26" s="16" t="s">
         <v>2849</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>2850</v>
       </c>
     </row>
     <row customFormat="1" r="27" s="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -18688,7 +18716,7 @@
     </row>
     <row customFormat="1" r="28" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>3013</v>
+        <v>3009</v>
       </c>
       <c r="B28" s="16">
         <v>36</v>
@@ -18788,7 +18816,7 @@
     </row>
     <row customFormat="1" r="34" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>3014</v>
+        <v>3010</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>118</v>
@@ -18818,7 +18846,7 @@
     </row>
     <row customFormat="1" r="36" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>3196</v>
+        <v>3192</v>
       </c>
       <c r="B36" s="30" t="s">
         <v>84</v>
@@ -18838,7 +18866,7 @@
     </row>
     <row customFormat="1" r="37" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>3015</v>
+        <v>3011</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>84</v>
@@ -18858,7 +18886,7 @@
     </row>
     <row customFormat="1" r="38" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="44" t="s">
-        <v>3016</v>
+        <v>3012</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>84</v>
@@ -18878,7 +18906,7 @@
     </row>
     <row customFormat="1" r="39" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
-        <v>3017</v>
+        <v>3013</v>
       </c>
       <c r="B39" s="30" t="s">
         <v>84</v>
@@ -18898,7 +18926,7 @@
     </row>
     <row customFormat="1" r="40" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
-        <v>3018</v>
+        <v>3014</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>84</v>
@@ -18918,7 +18946,7 @@
     </row>
     <row customFormat="1" r="41" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>3019</v>
+        <v>3015</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>84</v>
@@ -18938,7 +18966,7 @@
     </row>
     <row customFormat="1" r="42" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
-        <v>3020</v>
+        <v>3016</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>84</v>
@@ -18958,7 +18986,7 @@
     </row>
     <row customFormat="1" r="43" s="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="126" t="s">
-        <v>3193</v>
+        <v>3189</v>
       </c>
       <c r="B43" s="16" t="s">
         <v>84</v>
@@ -18988,7 +19016,7 @@
         <v>2788</v>
       </c>
       <c r="D45" s="68" t="s">
-        <v>3184</v>
+        <v>3180</v>
       </c>
       <c r="E45" s="68" t="s">
         <v>2788</v>
@@ -19019,14 +19047,14 @@
       </c>
       <c r="B47" s="68"/>
       <c r="C47" s="68" t="s">
-        <v>2851</v>
+        <v>2850</v>
       </c>
       <c r="D47" s="68"/>
       <c r="E47" s="68" t="s">
+        <v>2851</v>
+      </c>
+      <c r="F47" s="68" t="s">
         <v>2852</v>
-      </c>
-      <c r="F47" s="68" t="s">
-        <v>2853</v>
       </c>
     </row>
     <row customFormat="1" r="48" s="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -19047,7 +19075,7 @@
     </row>
     <row customFormat="1" r="49" s="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="98" t="s">
-        <v>3192</v>
+        <v>3188</v>
       </c>
       <c r="B49" s="99"/>
       <c r="C49" s="99"/>
@@ -19057,7 +19085,7 @@
     </row>
     <row customFormat="1" r="50" s="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="67" t="s">
-        <v>3195</v>
+        <v>3191</v>
       </c>
       <c r="B50" s="69"/>
       <c r="C50" s="69" t="s">
@@ -19080,7 +19108,7 @@
         <v>2791</v>
       </c>
       <c r="D51" s="69" t="s">
-        <v>3188</v>
+        <v>3184</v>
       </c>
       <c r="E51" s="69" t="s">
         <v>2791</v>
@@ -19098,7 +19126,7 @@
         <v>2792</v>
       </c>
       <c r="D52" s="69" t="s">
-        <v>3185</v>
+        <v>3181</v>
       </c>
       <c r="E52" s="69" t="s">
         <v>2792</v>
@@ -19132,7 +19160,7 @@
         <v>2794</v>
       </c>
       <c r="D54" s="69" t="s">
-        <v>3186</v>
+        <v>3182</v>
       </c>
       <c r="E54" s="69" t="s">
         <v>2794</v>
@@ -19150,7 +19178,7 @@
         <v>2791</v>
       </c>
       <c r="D55" s="69" t="s">
-        <v>3187</v>
+        <v>3183</v>
       </c>
       <c r="E55" s="69" t="s">
         <v>2791</v>
@@ -19181,10 +19209,10 @@
       </c>
       <c r="B57" s="69"/>
       <c r="C57" s="69" t="s">
-        <v>3194</v>
+        <v>3190</v>
       </c>
       <c r="D57" s="69" t="s">
-        <v>3194</v>
+        <v>3190</v>
       </c>
     </row>
     <row customFormat="1" r="58" s="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -19198,14 +19226,14 @@
       </c>
       <c r="B59" s="11"/>
       <c r="C59" s="11" t="s">
-        <v>2854</v>
+        <v>2853</v>
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11" t="s">
+        <v>2855</v>
+      </c>
+      <c r="F59" s="11" t="s">
         <v>2856</v>
-      </c>
-      <c r="F59" s="11" t="s">
-        <v>2857</v>
       </c>
     </row>
     <row customFormat="1" r="60" s="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -19214,14 +19242,14 @@
       </c>
       <c r="B60" s="11"/>
       <c r="C60" s="11" t="s">
-        <v>2858</v>
+        <v>2857</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
+        <v>2858</v>
+      </c>
+      <c r="F60" s="11" t="s">
         <v>2859</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>2860</v>
       </c>
     </row>
     <row customFormat="1" r="61" s="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -19230,14 +19258,14 @@
       </c>
       <c r="B61" s="11"/>
       <c r="C61" s="11" t="s">
-        <v>2861</v>
+        <v>2860</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11" t="s">
+        <v>2861</v>
+      </c>
+      <c r="F61" s="11" t="s">
         <v>2862</v>
-      </c>
-      <c r="F61" s="11" t="s">
-        <v>2863</v>
       </c>
     </row>
     <row customFormat="1" r="62" s="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -19246,14 +19274,14 @@
       </c>
       <c r="B62" s="11"/>
       <c r="C62" s="11" t="s">
-        <v>2864</v>
+        <v>2863</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
+        <v>2864</v>
+      </c>
+      <c r="F62" s="11" t="s">
         <v>2865</v>
-      </c>
-      <c r="F62" s="11" t="s">
-        <v>2866</v>
       </c>
     </row>
     <row customFormat="1" r="63" s="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -19266,10 +19294,10 @@
       </c>
       <c r="D63" s="11"/>
       <c r="E63" s="11" t="s">
+        <v>2854</v>
+      </c>
+      <c r="F63" s="11" t="s">
         <v>2855</v>
-      </c>
-      <c r="F63" s="11" t="s">
-        <v>2856</v>
       </c>
     </row>
     <row customFormat="1" r="64" s="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -19278,14 +19306,14 @@
       </c>
       <c r="B64" s="11"/>
       <c r="C64" s="11" t="s">
-        <v>2867</v>
+        <v>2866</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
+        <v>2867</v>
+      </c>
+      <c r="F64" s="11" t="s">
         <v>2868</v>
-      </c>
-      <c r="F64" s="11" t="s">
-        <v>2869</v>
       </c>
     </row>
     <row customFormat="1" r="65" s="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -19346,14 +19374,14 @@
       </c>
       <c r="B69" s="11"/>
       <c r="C69" s="11" t="s">
-        <v>2870</v>
+        <v>2869</v>
       </c>
       <c r="D69" s="11"/>
       <c r="E69" s="11" t="s">
+        <v>2870</v>
+      </c>
+      <c r="F69" s="11" t="s">
         <v>2871</v>
-      </c>
-      <c r="F69" s="11" t="s">
-        <v>2872</v>
       </c>
     </row>
     <row customFormat="1" r="70" s="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -19382,14 +19410,14 @@
       </c>
       <c r="B72" s="11"/>
       <c r="C72" s="11" t="s">
-        <v>2873</v>
+        <v>2872</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11" t="s">
+        <v>2873</v>
+      </c>
+      <c r="F72" s="11" t="s">
         <v>2874</v>
-      </c>
-      <c r="F72" s="11" t="s">
-        <v>2875</v>
       </c>
     </row>
     <row customFormat="1" r="73" s="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -19398,14 +19426,14 @@
       </c>
       <c r="B73" s="11"/>
       <c r="C73" s="11" t="s">
-        <v>2876</v>
+        <v>2875</v>
       </c>
       <c r="D73" s="11"/>
       <c r="E73" s="11" t="s">
+        <v>2876</v>
+      </c>
+      <c r="F73" s="11" t="s">
         <v>2877</v>
-      </c>
-      <c r="F73" s="11" t="s">
-        <v>2878</v>
       </c>
     </row>
     <row customFormat="1" r="74" s="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -19413,13 +19441,13 @@
         <v>2805</v>
       </c>
       <c r="C74" s="11" t="s">
+        <v>2878</v>
+      </c>
+      <c r="E74" s="11" t="s">
         <v>2879</v>
       </c>
-      <c r="E74" s="11" t="s">
+      <c r="F74" s="11" t="s">
         <v>2880</v>
-      </c>
-      <c r="F74" s="11" t="s">
-        <v>2881</v>
       </c>
     </row>
     <row customFormat="1" r="75" s="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -19441,13 +19469,13 @@
         <v>2808</v>
       </c>
       <c r="C76" s="11" t="s">
+        <v>2881</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>2882</v>
       </c>
-      <c r="E76" s="11" t="s">
+      <c r="F76" s="11" t="s">
         <v>2883</v>
-      </c>
-      <c r="F76" s="11" t="s">
-        <v>2884</v>
       </c>
     </row>
     <row customFormat="1" r="77" s="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -19455,13 +19483,13 @@
         <v>2809</v>
       </c>
       <c r="C77" s="11" t="s">
+        <v>2884</v>
+      </c>
+      <c r="E77" s="11" t="s">
         <v>2885</v>
       </c>
-      <c r="E77" s="11" t="s">
+      <c r="F77" s="11" t="s">
         <v>2886</v>
-      </c>
-      <c r="F77" s="11" t="s">
-        <v>2887</v>
       </c>
     </row>
     <row customFormat="1" r="78" s="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -19470,14 +19498,14 @@
       </c>
       <c r="B78" s="68"/>
       <c r="C78" s="68" t="s">
-        <v>2888</v>
+        <v>2887</v>
       </c>
       <c r="D78" s="68"/>
       <c r="E78" s="68" t="s">
+        <v>2888</v>
+      </c>
+      <c r="F78" s="68" t="s">
         <v>2889</v>
-      </c>
-      <c r="F78" s="68" t="s">
-        <v>2890</v>
       </c>
     </row>
     <row customFormat="1" r="79" s="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -19505,7 +19533,7 @@
         <v>126</v>
       </c>
       <c r="B81" s="22">
-        <v>0</v>
+        <v>200000</v>
       </c>
       <c r="C81" s="22">
         <v>100001</v>
@@ -19524,30 +19552,30 @@
       <c r="A82" s="70" t="s">
         <v>2708</v>
       </c>
-      <c r="B82" s="15" t="s">
-        <v>2811</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>2891</v>
-      </c>
-      <c r="D82" s="15" t="s">
-        <v>2892</v>
-      </c>
-      <c r="E82" s="15" t="s">
-        <v>2893</v>
+      <c r="B82" s="15">
+        <v>0</v>
+      </c>
+      <c r="C82" s="24">
+        <v>6478501</v>
+      </c>
+      <c r="D82" s="24">
+        <v>6478502</v>
+      </c>
+      <c r="E82" s="24">
+        <v>6478503</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>2894</v>
+        <v>2890</v>
       </c>
     </row>
     <row customFormat="1" r="83" s="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="109" t="s">
-        <v>3040</v>
+        <v>3036</v>
       </c>
     </row>
     <row customFormat="1" r="84" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="16" t="s">
-        <v>3041</v>
+        <v>3037</v>
       </c>
       <c r="B84" s="16" t="s">
         <v>114</v>
@@ -19555,21 +19583,21 @@
     </row>
     <row customFormat="1" r="85" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="16" t="s">
-        <v>3042</v>
-      </c>
-      <c r="B85">
-        <v>0</v>
+        <v>3038</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row customFormat="1" r="86" s="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="143" t="s">
-        <v>3107</v>
+        <v>3103</v>
       </c>
       <c r="B86" s="144"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="15" t="s">
-        <v>3100</v>
+        <v>3096</v>
       </c>
       <c r="B87" s="114">
         <f>SUM(B31:B32)</f>
@@ -19582,7 +19610,7 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="15" t="s">
-        <v>3101</v>
+        <v>3097</v>
       </c>
       <c r="B88" s="114">
         <f>'7.TabAssetData'!B19</f>
@@ -19595,7 +19623,7 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
-        <v>3102</v>
+        <v>3098</v>
       </c>
       <c r="B89" s="114">
         <f>B88+SUMIFS('7a.Accessories'!17:17,'7a.Accessories'!12:12,B8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")</f>
@@ -19865,10 +19893,10 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet20"/>
-  <dimension ref="A1:L71"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D66" sqref="A66:D71"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19884,8 +19912,8 @@
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>6</v>
+      <c r="B1" t="s">
+        <v>3229</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>6</v>
@@ -19917,10 +19945,10 @@
     </row>
     <row customFormat="1" r="2" s="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>2588</v>
+        <v>2812</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3230</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>2588</v>
@@ -19952,12 +19980,12 @@
     </row>
     <row customFormat="1" r="3" s="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="B4" s="16">
         <f>IF(AND('8.TabInsuranceData'!B81&gt;0,B46="Yes"),COUNTIFS($A12:$A18,"*$*",B12:B18,"")+COUNTIFS($A47:$A48,"*$*",B47:B48,""),IF(AND('8.TabInsuranceData'!B81&gt;0,B46="No"),COUNTIFS($A12:$A18,"*$*",B12:B18,""),IF(AND(OR('8.TabInsuranceData'!B81&lt;=0,ISBLANK(B82)),B46="Yes"),COUNTIFS($A47:$A48,"*$*",B47:B48,""),0)))</f>
@@ -19979,21 +20007,21 @@
         <f>'1.TabCustomerMainData'!B$13</f>
         <v>0002APP20221206256</v>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="16">
         <f>'1.TabCustomerMainData'!C$13</f>
-        <v>0002APP20221206273</v>
+        <v>0</v>
       </c>
     </row>
     <row customFormat="1" r="9" s="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
     </row>
     <row customFormat="1" r="10" s="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="B10" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -20015,13 +20043,13 @@
     </row>
     <row customFormat="1" r="12" s="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
-        <v>3021</v>
+        <v>3017</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>132</v>
+        <v>3214</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>3217</v>
+        <v>3211</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>105</v>
@@ -20035,24 +20063,24 @@
     </row>
     <row customFormat="1" r="13" s="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
-        <v>3068</v>
+        <v>3064</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>2691</v>
+        <v>3215</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>3217</v>
+        <v>3211</v>
       </c>
     </row>
     <row customFormat="1" r="14" s="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
-        <v>3022</v>
+        <v>3018</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>2587</v>
+        <v>3216</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>3217</v>
+        <v>3211</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>136</v>
@@ -20066,13 +20094,13 @@
     </row>
     <row customFormat="1" r="15" s="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
-        <v>3023</v>
+        <v>3019</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>135</v>
+        <v>3217</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>3217</v>
+        <v>3211</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>137</v>
@@ -20086,13 +20114,13 @@
     </row>
     <row customFormat="1" r="16" s="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
-        <v>3024</v>
+        <v>3020</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>94</v>
+        <v>3218</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>3217</v>
+        <v>3211</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>94</v>
@@ -20106,13 +20134,13 @@
     </row>
     <row customFormat="1" r="17" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
-        <v>3025</v>
-      </c>
-      <c r="B17" s="22">
-        <v>300000</v>
+        <v>3021</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3220</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>3217</v>
+        <v>3211</v>
       </c>
       <c r="D17" s="15">
         <v>1000002</v>
@@ -20126,13 +20154,13 @@
     </row>
     <row customFormat="1" r="18" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>3026</v>
-      </c>
-      <c r="B18" s="16">
-        <v>0</v>
+        <v>3022</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>3219</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>3217</v>
+        <v>3211</v>
       </c>
     </row>
     <row customFormat="1" r="19" s="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -20169,8 +20197,8 @@
       <c r="A21" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="15">
-        <v>150000</v>
+      <c r="B21" t="n">
+        <v>150000.0</v>
       </c>
       <c r="C21" s="22">
         <v>150000</v>
@@ -20620,7 +20648,7 @@
         <v>162</v>
       </c>
       <c r="B44" t="s">
-        <v>3201</v>
+        <v>3232</v>
       </c>
       <c r="C44" s="2">
         <v>10.007128</v>
@@ -20677,7 +20705,7 @@
     </row>
     <row customFormat="1" r="47" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>3027</v>
+        <v>3023</v>
       </c>
       <c r="B47" s="16">
         <v>3</v>
@@ -20697,7 +20725,7 @@
     </row>
     <row customFormat="1" r="48" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
-        <v>3028</v>
+        <v>3024</v>
       </c>
       <c r="B48" s="16" t="s">
         <v>2595</v>
@@ -20737,7 +20765,7 @@
     </row>
     <row customFormat="1" ht="15.75" r="50" s="10" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>3087</v>
+        <v>3083</v>
       </c>
       <c r="B50" s="111"/>
       <c r="C50" s="111"/>
@@ -20767,7 +20795,7 @@
     </row>
     <row customFormat="1" r="52" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
-        <v>3109</v>
+        <v>3105</v>
       </c>
       <c r="B52" s="16">
         <v>1000</v>
@@ -20778,10 +20806,10 @@
     </row>
     <row customFormat="1" r="53" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
-        <v>3110</v>
-      </c>
-      <c r="B53">
-        <v>300000</v>
+        <v>3106</v>
+      </c>
+      <c r="B53" t="n">
+        <v>300000.0</v>
       </c>
       <c r="C53" s="16">
         <v>0</v>
@@ -20789,12 +20817,12 @@
     </row>
     <row customFormat="1" r="54" s="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="118" t="s">
-        <v>3111</v>
+        <v>3107</v>
       </c>
     </row>
     <row customFormat="1" r="55" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>3112</v>
+        <v>3108</v>
       </c>
       <c r="B55" s="128">
         <f>SUM(B56:B57)</f>
@@ -20807,7 +20835,7 @@
     </row>
     <row customFormat="1" r="56" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>3101</v>
+        <v>3097</v>
       </c>
       <c r="B56" s="128">
         <f>'7.TabAssetData'!B19</f>
@@ -20820,7 +20848,7 @@
     </row>
     <row customFormat="1" r="57" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>3113</v>
+        <v>3109</v>
       </c>
       <c r="B57" s="128">
         <f>SUMIFS('7a.Accessories'!17:17,'7a.Accessories'!12:12,B8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")</f>
@@ -20833,7 +20861,7 @@
     </row>
     <row customFormat="1" r="58" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>3100</v>
+        <v>3096</v>
       </c>
       <c r="B58" s="128">
         <f>SUM(B21:B25,B39)</f>
@@ -20846,7 +20874,7 @@
     </row>
     <row customFormat="1" r="59" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="11" t="s">
-        <v>3114</v>
+        <v>3110</v>
       </c>
       <c r="B59" s="128">
         <f>SUM(B27,B29,B31,B33,B35,B41)</f>
@@ -20859,7 +20887,7 @@
     </row>
     <row customFormat="1" r="60" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
-        <v>3115</v>
+        <v>3111</v>
       </c>
       <c r="B60" s="128">
         <f>'8.TabInsuranceData'!B85</f>
@@ -20872,7 +20900,7 @@
     </row>
     <row customFormat="1" r="61" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="11" t="s">
-        <v>3116</v>
+        <v>3112</v>
       </c>
       <c r="B61" s="128">
         <f>SUMIFS('7a.Accessories'!24:24,'7a.Accessories'!12:12,B8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")+'7.TabAssetData'!B70</f>
@@ -20885,7 +20913,7 @@
     </row>
     <row customFormat="1" r="62" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>3117</v>
+        <v>3113</v>
       </c>
       <c r="B62" s="128">
         <f>B61-B53</f>
@@ -20898,7 +20926,7 @@
     </row>
     <row customFormat="1" r="63" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>3118</v>
+        <v>3114</v>
       </c>
       <c r="B63" s="128">
         <f>IF(B37= "OTR-DP",B39/(B55-B61)*100,IF(B37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",B39*100/(B55-B61+B60+(B59-B41))))</f>
@@ -20911,7 +20939,7 @@
     </row>
     <row customFormat="1" r="64" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
-        <v>3119</v>
+        <v>3115</v>
       </c>
       <c r="B64" s="128">
         <f>IF(B37= "OTR-DP",(B55-B61)*B38/100,IF(B37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",(B55-B61+B60+(B59-B41))*B38/100))</f>
@@ -20924,15 +20952,15 @@
     </row>
     <row customFormat="1" r="65" s="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="117" t="s">
-        <v>3120</v>
+        <v>3116</v>
       </c>
     </row>
     <row customFormat="1" r="66" s="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="11" t="s">
-        <v>3121</v>
-      </c>
-      <c r="B66" s="16">
-        <v>362678000</v>
+        <v>3117</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3.62598E8</v>
       </c>
       <c r="C66" s="16">
         <v>362678000</v>
@@ -20940,10 +20968,10 @@
     </row>
     <row customFormat="1" r="67" s="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="11" t="s">
-        <v>3122</v>
-      </c>
-      <c r="B67" s="16">
-        <v>651440000</v>
+        <v>3118</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6.5232E8</v>
       </c>
       <c r="C67" s="16">
         <v>651440000</v>
@@ -20951,10 +20979,10 @@
     </row>
     <row customFormat="1" r="68" s="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="11" t="s">
-        <v>3123</v>
-      </c>
-      <c r="B68" s="16">
-        <v>79742000</v>
+        <v>3119</v>
+      </c>
+      <c r="B68" t="n">
+        <v>7.9853E7</v>
       </c>
       <c r="C68" s="16">
         <v>79742000</v>
@@ -20962,10 +20990,10 @@
     </row>
     <row customFormat="1" r="69" s="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="11" t="s">
-        <v>3124</v>
-      </c>
-      <c r="B69" s="16">
-        <v>66237997.920000002</v>
+        <v>3120</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6.635700155E7</v>
       </c>
       <c r="C69" s="16">
         <v>66237997.920000002</v>
@@ -20973,10 +21001,10 @@
     </row>
     <row customFormat="1" r="70" s="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="11" t="s">
-        <v>3125</v>
-      </c>
-      <c r="B70" s="16">
-        <v>717677997.91999996</v>
+        <v>3121</v>
+      </c>
+      <c r="B70" t="n">
+        <v>7.1867700155E8</v>
       </c>
       <c r="C70" s="16">
         <v>717677997.91999996</v>
@@ -20984,13 +21012,39 @@
     </row>
     <row customFormat="1" r="71" s="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="11" t="s">
-        <v>3126</v>
-      </c>
-      <c r="B71" s="16">
-        <v>15.862095030000001</v>
+        <v>3122</v>
+      </c>
+      <c r="B71" t="n">
+        <v>16.08129146</v>
       </c>
       <c r="C71" s="16">
         <v>15.862095030000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="115" t="s">
+        <v>3223</v>
+      </c>
+      <c r="B72" s="140">
+        <f>B62*100/B55</f>
+        <v>34.97</v>
+      </c>
+      <c r="C72" s="140">
+        <f>C62*100/C55</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="115" t="s">
+        <v>3224</v>
+      </c>
+      <c r="B73" s="15">
+        <f>IF(B37= "OTR-DP",(B55-B61),IF(B37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",(B55-B61+B60+(B59-B41))))</f>
+        <v>650440000</v>
+      </c>
+      <c r="C73" s="15">
+        <f>IF(C37= "OTR-DP",(C55-C61),IF(C37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",(C55-C61+C60+(C59-C41))))</f>
+        <v>400000000</v>
       </c>
     </row>
   </sheetData>
@@ -21380,8 +21434,8 @@
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="13" t="s">
-        <v>6</v>
+      <c r="B1" t="s">
+        <v>3228</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>6</v>
@@ -21404,9 +21458,9 @@
     </row>
     <row customFormat="1" r="2" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B2" s="13" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B2" t="s">
         <v>2588</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -21430,13 +21484,13 @@
     </row>
     <row customFormat="1" r="3" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
       <c r="C3" s="13"/>
     </row>
     <row customFormat="1" r="4" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="B4" s="16">
         <f>IF(NOT(ISBLANK(B12)),COUNTIFS($A13:$A13,"*$*",B13:B13,""),0)</f>
@@ -21467,21 +21521,21 @@
         <f>'1.TabCustomerMainData'!B$13</f>
         <v>0002APP20221206120</v>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="16">
         <f>'1.TabCustomerMainData'!C$13</f>
-        <v>0002APP20221206273</v>
+        <v>0</v>
       </c>
     </row>
     <row customFormat="1" r="9" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
     </row>
     <row customFormat="1" r="10" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="B10" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -21502,21 +21556,21 @@
         <v>1982</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>3070</v>
+        <v>3066</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>3070</v>
+        <v>3066</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
-        <v>3029</v>
+        <v>3025</v>
       </c>
       <c r="B13" s="62" t="s">
-        <v>3071</v>
+        <v>3067</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>3071</v>
+        <v>3067</v>
       </c>
     </row>
     <row customFormat="1" r="14" s="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -21531,10 +21585,10 @@
         <v>1984</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>3089</v>
+        <v>3085</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>3089</v>
+        <v>3085</v>
       </c>
     </row>
     <row customFormat="1" r="16" s="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -21542,10 +21596,10 @@
         <v>1985</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>3072</v>
+        <v>3068</v>
       </c>
     </row>
     <row customFormat="1" ht="36.75" r="17" s="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -21553,10 +21607,10 @@
         <v>1986</v>
       </c>
       <c r="B17" s="60" t="s">
-        <v>3069</v>
+        <v>3065</v>
       </c>
       <c r="C17" s="60" t="s">
-        <v>3069</v>
+        <v>3065</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -21639,7 +21693,7 @@
     </row>
     <row customFormat="1" r="2" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B2" s="112" t="s">
         <v>2588</v>
@@ -21665,12 +21719,12 @@
     </row>
     <row customFormat="1" r="3" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>3005</v>
+        <v>3001</v>
       </c>
       <c r="B4" s="16">
         <f>COUNTIFS($A13:$A14,"*$*",B13:B14,"")</f>
@@ -21695,13 +21749,13 @@
     <row customFormat="1" r="8" s="16" spans="1:8" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row customFormat="1" r="10" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="B10" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -21729,14 +21783,14 @@
         <f>'1.TabCustomerMainData'!$B$13</f>
         <v>0002APP20221206120</v>
       </c>
-      <c r="D12" s="16" t="str">
+      <c r="D12" s="16">
         <f>'1.TabCustomerMainData'!$C$13</f>
-        <v>0002APP20221206273</v>
+        <v>0</v>
       </c>
     </row>
     <row customFormat="1" ht="60" r="13" s="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="50" t="s">
-        <v>3030</v>
+        <v>3026</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>166</v>
@@ -21753,19 +21807,19 @@
     </row>
     <row customFormat="1" r="14" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="44" t="s">
-        <v>3031</v>
+        <v>3027</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>167</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>2895</v>
+        <v>2891</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>167</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>2895</v>
+        <v>2891</v>
       </c>
     </row>
     <row customFormat="1" r="15" s="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -21793,13 +21847,13 @@
         <v>171</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>171</v>
       </c>
       <c r="E16" s="16" t="s">
-        <v>2896</v>
+        <v>2892</v>
       </c>
     </row>
     <row customFormat="1" r="17" s="16" spans="1:1" x14ac:dyDescent="0.25">
@@ -21840,8 +21894,8 @@
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>6</v>
+      <c r="B1" t="s">
+        <v>3228</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>6</v>
@@ -21861,9 +21915,9 @@
     </row>
     <row customFormat="1" r="2" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B2" s="16" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B2" t="s">
         <v>2588</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -21884,12 +21938,12 @@
     </row>
     <row customFormat="1" r="3" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="B4" s="16">
         <f>COUNTIFS($A14:$A52,"*$*",B14:B52,"")</f>
@@ -21911,19 +21965,19 @@
         <f>'1.TabCustomerMainData'!B$13</f>
         <v>0002APP20221206120</v>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="16">
         <f>'1.TabCustomerMainData'!C$13</f>
-        <v>0002APP20221206273</v>
+        <v>0</v>
       </c>
     </row>
     <row customFormat="1" r="9" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>3097</v>
+        <v>3093</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="B10" t="str">
         <f>'1.TabCustomerMainData'!B10</f>
@@ -21970,7 +22024,7 @@
     </row>
     <row customFormat="1" r="15" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
       <c r="B15" s="13">
         <v>1</v>
@@ -22149,16 +22203,16 @@
     </row>
     <row customFormat="1" r="29" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>2693</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>2897</v>
+        <v>2893</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>2898</v>
+        <v>2894</v>
       </c>
     </row>
     <row customFormat="1" r="30" s="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -22169,10 +22223,10 @@
         <v>2689</v>
       </c>
       <c r="C30" s="106" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
       <c r="D30" s="106" t="s">
-        <v>2900</v>
+        <v>2896</v>
       </c>
     </row>
     <row customFormat="1" r="31" s="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -22183,10 +22237,10 @@
         <v>2694</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>2901</v>
+        <v>2897</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>2902</v>
+        <v>2898</v>
       </c>
     </row>
     <row customFormat="1" r="32" s="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -22197,10 +22251,10 @@
         <v>2689</v>
       </c>
       <c r="C32" s="106" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
       <c r="D32" s="106" t="s">
-        <v>2900</v>
+        <v>2896</v>
       </c>
     </row>
     <row customFormat="1" r="33" s="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -22211,10 +22265,10 @@
         <v>2694</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>2901</v>
+        <v>2897</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>2902</v>
+        <v>2898</v>
       </c>
     </row>
     <row customFormat="1" r="34" s="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -22225,10 +22279,10 @@
         <v>2689</v>
       </c>
       <c r="C34" s="106" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
       <c r="D34" s="106" t="s">
-        <v>2900</v>
+        <v>2896</v>
       </c>
     </row>
     <row customFormat="1" r="35" s="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -22239,10 +22293,10 @@
         <v>2694</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>2901</v>
+        <v>2897</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>2902</v>
+        <v>2898</v>
       </c>
     </row>
     <row customFormat="1" r="36" s="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -22253,10 +22307,10 @@
         <v>2689</v>
       </c>
       <c r="C36" s="106" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
       <c r="D36" s="106" t="s">
-        <v>2900</v>
+        <v>2896</v>
       </c>
     </row>
     <row customFormat="1" r="37" s="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -22267,10 +22321,10 @@
         <v>2694</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>2901</v>
+        <v>2897</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>2902</v>
+        <v>2898</v>
       </c>
     </row>
     <row customFormat="1" r="38" s="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -22281,10 +22335,10 @@
         <v>2689</v>
       </c>
       <c r="C38" s="106" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
       <c r="D38" s="106" t="s">
-        <v>2900</v>
+        <v>2896</v>
       </c>
     </row>
     <row customFormat="1" r="39" s="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -22295,10 +22349,10 @@
         <v>2694</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>2901</v>
+        <v>2897</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>2902</v>
+        <v>2898</v>
       </c>
     </row>
     <row customFormat="1" r="40" s="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -22306,13 +22360,13 @@
         <v>1992</v>
       </c>
       <c r="B40" s="106" t="s">
-        <v>3136</v>
+        <v>3132</v>
       </c>
       <c r="C40" s="106" t="s">
-        <v>2899</v>
+        <v>2895</v>
       </c>
       <c r="D40" s="106" t="s">
-        <v>2900</v>
+        <v>2896</v>
       </c>
     </row>
     <row customFormat="1" r="41" s="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -22323,10 +22377,10 @@
         <v>2694</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>2901</v>
+        <v>2897</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>2902</v>
+        <v>2898</v>
       </c>
     </row>
     <row customFormat="1" r="42" s="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -22347,7 +22401,7 @@
     </row>
     <row customFormat="1" r="44" s="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>2692</v>
@@ -22356,7 +22410,7 @@
         <v>2692</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>2903</v>
+        <v>2899</v>
       </c>
     </row>
     <row customFormat="1" r="45" s="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -22449,12 +22503,12 @@
     </row>
     <row customFormat="1" r="53" s="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="158" t="s">
-        <v>3137</v>
+        <v>3133</v>
       </c>
     </row>
     <row customFormat="1" r="54" s="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="120" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="B54" s="120" t="s">
         <v>31</v>
@@ -22465,7 +22519,7 @@
     </row>
     <row customFormat="1" r="55" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
-        <v>3138</v>
+        <v>3134</v>
       </c>
       <c r="B55" s="12"/>
       <c r="C55" s="12"/>
@@ -22474,7 +22528,7 @@
     </row>
     <row customFormat="1" r="56" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
-        <v>3139</v>
+        <v>3135</v>
       </c>
       <c r="B56" s="12"/>
       <c r="C56" s="12"/>
@@ -22483,7 +22537,7 @@
     </row>
     <row customFormat="1" r="57" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
-        <v>3140</v>
+        <v>3136</v>
       </c>
       <c r="B57" s="12"/>
       <c r="C57" s="12"/>
@@ -22492,7 +22546,7 @@
     </row>
     <row customFormat="1" ht="15.75" r="58" s="16" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>3142</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -22594,7 +22648,7 @@
   <sheetPr codeName="Sheet17"/>
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="C19" pane="topRight" sqref="C19"/>
     </sheetView>
@@ -22611,8 +22665,8 @@
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>6</v>
+      <c r="B1" t="s">
+        <v>3228</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>6</v>
@@ -22635,9 +22689,9 @@
     </row>
     <row customFormat="1" r="2" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B2" s="16" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B2" t="s">
         <v>2588</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -22661,12 +22715,12 @@
     </row>
     <row customFormat="1" r="3" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="B4" s="16">
         <f>COUNTIFS($A:$A,"*$*",B:B,"")</f>
@@ -22688,19 +22742,19 @@
         <f>'1.TabCustomerMainData'!B$13</f>
         <v>0002APP20221206120</v>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="16">
         <f>'1.TabCustomerMainData'!C$13</f>
-        <v>0002APP20221206273</v>
+        <v>0</v>
       </c>
     </row>
     <row customFormat="1" r="9" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
     </row>
     <row customFormat="1" r="10" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="B10" s="15" t="str">
         <f>'1.TabCustomerMainData'!B10</f>
@@ -22713,85 +22767,85 @@
     </row>
     <row customFormat="1" r="11" s="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="110" t="s">
-        <v>3050</v>
+        <v>3046</v>
       </c>
       <c r="B11" s="78"/>
     </row>
     <row customFormat="1" ht="15.75" r="12" s="33" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="51" t="s">
-        <v>3045</v>
+        <v>3041</v>
       </c>
       <c r="B12" s="131">
         <v>1000000</v>
       </c>
-      <c r="C12" s="136">
+      <c r="C12" s="135">
         <v>1000000</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="13" s="34" spans="1:8" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
-        <v>3046</v>
-      </c>
-      <c r="B13" s="132">
-        <v>0</v>
-      </c>
-      <c r="C13" s="135">
+        <v>3042</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C13" s="134">
         <v>0</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="14" s="34" spans="1:8" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A14" s="52" t="s">
-        <v>3047</v>
-      </c>
-      <c r="B14" s="133">
-        <v>0</v>
-      </c>
-      <c r="C14" s="135">
+        <v>3043</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C14" s="134">
         <v>0</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="15" s="34" spans="1:8" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A15" s="52" t="s">
-        <v>3048</v>
-      </c>
-      <c r="B15" s="134">
+        <v>3044</v>
+      </c>
+      <c r="B15" s="133">
         <v>4010</v>
       </c>
-      <c r="C15" s="135">
+      <c r="C15" s="134">
         <v>4010</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="16" s="34" spans="1:8" thickBot="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A16" s="52" t="s">
-        <v>3049</v>
-      </c>
-      <c r="B16" s="135">
+        <v>3045</v>
+      </c>
+      <c r="B16" s="134">
         <v>2010</v>
       </c>
-      <c r="C16" s="135">
+      <c r="C16" s="134">
         <v>2010</v>
       </c>
     </row>
     <row ht="15.75" r="17" spans="1:5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="113" t="s">
-        <v>3096</v>
-      </c>
-      <c r="B17" s="133">
+        <v>3092</v>
+      </c>
+      <c r="B17" s="132">
         <f>B12+B13+B14+B15+B16</f>
         <v>1006020</v>
       </c>
-      <c r="C17" s="133">
+      <c r="C17" s="132">
         <v>1006020</v>
       </c>
     </row>
     <row customFormat="1" r="18" s="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="158" t="s">
-        <v>3137</v>
+        <v>3133</v>
       </c>
     </row>
     <row customFormat="1" r="19" s="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="120" t="s">
-        <v>3141</v>
+        <v>3137</v>
       </c>
       <c r="B19" s="120" t="s">
         <v>31</v>
@@ -22802,7 +22856,7 @@
     </row>
     <row customFormat="1" r="20" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>3138</v>
+        <v>3134</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -22811,7 +22865,7 @@
     </row>
     <row customFormat="1" r="21" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>3139</v>
+        <v>3135</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -22820,7 +22874,7 @@
     </row>
     <row customFormat="1" r="22" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>3140</v>
+        <v>3136</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="12"/>
@@ -22829,15 +22883,15 @@
     </row>
     <row customFormat="1" r="23" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>3142</v>
+        <v>3138</v>
       </c>
     </row>
     <row ht="120" r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="122" t="s">
-        <v>3043</v>
+        <v>3039</v>
       </c>
       <c r="B24" s="123" t="s">
-        <v>3044</v>
+        <v>3040</v>
       </c>
     </row>
   </sheetData>
@@ -22875,7 +22929,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
+      <selection activeCell="B17" pane="topRight" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22890,7 +22944,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3219</v>
+        <v>3228</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>6</v>
@@ -22913,7 +22967,7 @@
     </row>
     <row customFormat="1" r="2" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>2588</v>
@@ -22939,12 +22993,12 @@
     </row>
     <row customFormat="1" r="3" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="4" s="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="B4" s="107">
         <f>COUNTIFS($A$12:$A$18, "*$*",B12:B18, "")</f>
@@ -22962,13 +23016,13 @@
     <row customFormat="1" r="9" s="16" spans="1:8" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="10" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>3056</v>
+        <v>3052</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>3189</v>
+        <v>3185</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>3189</v>
+        <v>3185</v>
       </c>
     </row>
     <row customFormat="1" r="11" s="85" spans="1:8" x14ac:dyDescent="0.25">
@@ -22976,7 +23030,7 @@
     </row>
     <row customFormat="1" r="12" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
-        <v>2950</v>
+        <v>2946</v>
       </c>
       <c r="B12" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
@@ -22989,18 +23043,18 @@
     </row>
     <row customFormat="1" r="13" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="44" t="s">
-        <v>3032</v>
+        <v>3028</v>
       </c>
       <c r="B13" t="s">
         <v>2720</v>
       </c>
       <c r="C13" t="s">
-        <v>3208</v>
+        <v>3202</v>
       </c>
     </row>
     <row customFormat="1" r="14" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="42" t="s">
-        <v>3033</v>
+        <v>3029</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>84</v>
@@ -23011,18 +23065,18 @@
     </row>
     <row customFormat="1" r="15" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>3034</v>
+        <v>3030</v>
       </c>
       <c r="B15" t="s">
-        <v>3203</v>
+        <v>3198</v>
       </c>
       <c r="C15" t="s">
-        <v>3222</v>
+        <v>3212</v>
       </c>
     </row>
     <row customFormat="1" r="16" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
-        <v>3033</v>
+        <v>3029</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>114</v>
@@ -23033,18 +23087,18 @@
     </row>
     <row customFormat="1" r="17" s="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
-        <v>3035</v>
+        <v>3031</v>
       </c>
       <c r="B17" t="s">
-        <v>2956</v>
+        <v>3222</v>
       </c>
       <c r="C17" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
     </row>
     <row customFormat="1" r="18" s="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="42" t="s">
-        <v>3033</v>
+        <v>3029</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>114</v>
@@ -23063,7 +23117,7 @@
           <x14:formula1>
             <xm:f>IF(B13&lt;&gt;"",Master!$CL$2:$CL$3)</xm:f>
           </x14:formula1>
-          <xm:sqref>B18:C18 B14:C14 B16:C16</xm:sqref>
+          <xm:sqref>B16:C16 B14:C14 B18:C18</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -23076,7 +23130,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:DT476"/>
   <sheetViews>
-    <sheetView topLeftCell="BC1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
       <selection activeCell="BH1" pane="bottomLeft" sqref="BH1:BH8"/>
     </sheetView>
@@ -23637,7 +23691,7 @@
         <v>60</v>
       </c>
       <c r="BH3" s="24" t="s">
-        <v>3183</v>
+        <v>3179</v>
       </c>
       <c r="BJ3" s="24" t="s">
         <v>211</v>
@@ -24221,7 +24275,7 @@
         <v>187</v>
       </c>
       <c r="BL7" s="24" t="s">
-        <v>3168</v>
+        <v>3164</v>
       </c>
       <c r="BP7" s="24" t="s">
         <v>235</v>
@@ -24319,7 +24373,7 @@
         <v>56</v>
       </c>
       <c r="BL8" s="24" t="s">
-        <v>3169</v>
+        <v>3165</v>
       </c>
       <c r="BP8" s="24" t="s">
         <v>212</v>
@@ -24698,7 +24752,7 @@
         <v>2046</v>
       </c>
       <c r="AX13" s="24" t="s">
-        <v>3164</v>
+        <v>3160</v>
       </c>
       <c r="CH13" s="24" t="s">
         <v>376</v>
@@ -24763,7 +24817,7 @@
         <v>2047</v>
       </c>
       <c r="AX14" s="24" t="s">
-        <v>3165</v>
+        <v>3161</v>
       </c>
       <c r="CH14" s="24" t="s">
         <v>384</v>
@@ -24826,7 +24880,7 @@
         <v>2048</v>
       </c>
       <c r="AX15" s="24" t="s">
-        <v>3166</v>
+        <v>3162</v>
       </c>
       <c r="CH15" s="24" t="s">
         <v>393</v>
@@ -24885,7 +24939,7 @@
         <v>2049</v>
       </c>
       <c r="AX16" s="24" t="s">
-        <v>3167</v>
+        <v>3163</v>
       </c>
       <c r="CH16" s="24" t="s">
         <v>400</v>
@@ -24897,10 +24951,10 @@
         <v>752</v>
       </c>
       <c r="DM16" s="24" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
       <c r="DN16" s="24" t="s">
-        <v>3182</v>
+        <v>3178</v>
       </c>
       <c r="DP16" s="24" t="s">
         <v>2764</v>
@@ -25426,7 +25480,7 @@
         <v>2060</v>
       </c>
       <c r="CH27" s="24" t="s">
-        <v>3170</v>
+        <v>3166</v>
       </c>
       <c r="DG27" s="24" t="s">
         <v>827</v>
@@ -25470,7 +25524,7 @@
         <v>2061</v>
       </c>
       <c r="CH28" s="24" t="s">
-        <v>3171</v>
+        <v>3167</v>
       </c>
       <c r="DG28" s="24" t="s">
         <v>833</v>
@@ -25505,7 +25559,7 @@
         <v>501</v>
       </c>
       <c r="AN29" s="24" t="s">
-        <v>3160</v>
+        <v>3156</v>
       </c>
       <c r="AR29" s="24" t="s">
         <v>476</v>
@@ -25514,7 +25568,7 @@
         <v>2062</v>
       </c>
       <c r="CH29" s="24" t="s">
-        <v>3172</v>
+        <v>3168</v>
       </c>
       <c r="DG29" s="24" t="s">
         <v>840</v>
@@ -25543,7 +25597,7 @@
         <v>508</v>
       </c>
       <c r="AN30" s="24" t="s">
-        <v>3161</v>
+        <v>3157</v>
       </c>
       <c r="AR30" s="24" t="s">
         <v>483</v>
@@ -25552,7 +25606,7 @@
         <v>2063</v>
       </c>
       <c r="CH30" s="24" t="s">
-        <v>3163</v>
+        <v>3159</v>
       </c>
       <c r="DG30" s="24" t="s">
         <v>846</v>
@@ -25581,7 +25635,7 @@
         <v>515</v>
       </c>
       <c r="AN31" s="24" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="AR31" s="24" t="s">
         <v>490</v>
@@ -25590,13 +25644,13 @@
         <v>2064</v>
       </c>
       <c r="CH31" s="24" t="s">
-        <v>3173</v>
+        <v>3169</v>
       </c>
       <c r="DG31" s="24" t="s">
-        <v>3174</v>
+        <v>3170</v>
       </c>
       <c r="DH31" s="24" t="s">
-        <v>3175</v>
+        <v>3171</v>
       </c>
     </row>
     <row r="32" spans="1:121" x14ac:dyDescent="0.25">
@@ -25619,7 +25673,7 @@
         <v>522</v>
       </c>
       <c r="AN32" s="24" t="s">
-        <v>3162</v>
+        <v>3158</v>
       </c>
       <c r="AR32" s="24" t="s">
         <v>497</v>
@@ -25628,10 +25682,10 @@
         <v>2065</v>
       </c>
       <c r="DG32" s="24" t="s">
-        <v>3176</v>
+        <v>3172</v>
       </c>
       <c r="DH32" s="24" t="s">
-        <v>3177</v>
+        <v>3173</v>
       </c>
     </row>
     <row r="33" spans="1:112" x14ac:dyDescent="0.25">
@@ -25654,7 +25708,7 @@
         <v>529</v>
       </c>
       <c r="AN33" s="24" t="s">
-        <v>3163</v>
+        <v>3159</v>
       </c>
       <c r="AR33" s="24" t="s">
         <v>502</v>
@@ -25663,10 +25717,10 @@
         <v>2066</v>
       </c>
       <c r="DG33" s="24" t="s">
-        <v>3178</v>
+        <v>3174</v>
       </c>
       <c r="DH33" s="24" t="s">
-        <v>3179</v>
+        <v>3175</v>
       </c>
     </row>
     <row r="34" spans="1:112" x14ac:dyDescent="0.25">
@@ -25695,10 +25749,10 @@
         <v>2067</v>
       </c>
       <c r="DG34" s="24" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
       <c r="DH34" s="24" t="s">
-        <v>3180</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="35" spans="1:112" x14ac:dyDescent="0.25">
@@ -25727,10 +25781,10 @@
         <v>2068</v>
       </c>
       <c r="DG35" s="24" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
       <c r="DH35" s="24" t="s">
-        <v>3181</v>
+        <v>3177</v>
       </c>
     </row>
     <row r="36" spans="1:112" x14ac:dyDescent="0.25">
@@ -25943,10 +25997,10 @@
     </row>
     <row r="44" spans="1:112" x14ac:dyDescent="0.25">
       <c r="A44" s="24" t="s">
-        <v>3159</v>
+        <v>3155</v>
       </c>
       <c r="B44" s="24" t="s">
-        <v>3159</v>
+        <v>3155</v>
       </c>
       <c r="E44" s="24" t="s">
         <v>573</v>
@@ -32220,7 +32274,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
@@ -32238,8 +32292,8 @@
       <c r="A1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="112" t="s">
-        <v>6</v>
+      <c r="B1" t="s">
+        <v>3228</v>
       </c>
       <c r="C1" s="112" t="s">
         <v>6</v>
@@ -32265,7 +32319,7 @@
     </row>
     <row customFormat="1" r="2" s="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="112" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B2" s="112" t="s">
         <v>2588</v>
@@ -32294,12 +32348,12 @@
     </row>
     <row customFormat="1" r="3" s="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="4" s="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="B4" s="107">
         <f>IF(AND(B10="Edit",B14="Input Data"),COUNTIFS($A19:$A22,"*$*",B19:B22,"")+COUNTIFS($A24:$A31,"*$*",B24:B31,"")+COUNTIFS($A12,"*$*",B12,""),IF(AND(B10="Edit",B14="LookUp"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A21:$A22,"*$*",B21:B22,""),IF(B10="Yes",COUNTIFS($A9,"*$*",B9,""),IF(AND(B10="No",B14="Input Data"),COUNTIFS($A19:$A22,"*$*",B19:B22,"")+COUNTIFS($A24:$A31,"*$*",B24:B31,""),IF(AND(B10="No",B14="LookUp"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A21:$A22,"*$*",B21:B22,""))))))</f>
@@ -32326,25 +32380,25 @@
     <row customFormat="1" r="6" s="28" spans="1:9" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="7" s="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
-        <v>3134</v>
+        <v>3130</v>
       </c>
       <c r="B7" s="16"/>
     </row>
     <row customFormat="1" r="8" s="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>3077</v>
+        <v>3073</v>
       </c>
       <c r="B8" s="15"/>
     </row>
     <row customFormat="1" r="9" s="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>3053</v>
+        <v>3049</v>
       </c>
       <c r="B9" s="15"/>
     </row>
     <row customFormat="1" r="10" s="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>31</v>
@@ -32361,12 +32415,9 @@
     </row>
     <row customFormat="1" r="12" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>3054</v>
+        <v>3050</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>2619</v>
-      </c>
-      <c r="C12" s="16" t="s">
         <v>2619</v>
       </c>
     </row>
@@ -32375,11 +32426,9 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>3218</v>
-      </c>
-      <c r="C13" t="s">
-        <v>3221</v>
-      </c>
+        <v>3227</v>
+      </c>
+      <c r="C13"/>
       <c r="D13"/>
     </row>
     <row customFormat="1" r="14" s="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -32414,7 +32463,7 @@
     </row>
     <row customFormat="1" r="16" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>2904</v>
+        <v>2900</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>2719</v>
@@ -32425,18 +32474,18 @@
     </row>
     <row customFormat="1" r="17" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
-        <v>2905</v>
+        <v>2901</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>2720</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>3190</v>
+        <v>3186</v>
       </c>
     </row>
     <row customFormat="1" r="18" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>2906</v>
+        <v>2902</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2721</v>
@@ -32447,13 +32496,13 @@
     </row>
     <row customFormat="1" r="19" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>2907</v>
+        <v>2903</v>
       </c>
       <c r="B19" t="s">
         <v>2720</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>3208</v>
+        <v>3202</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>2720</v>
@@ -32461,21 +32510,21 @@
     </row>
     <row customFormat="1" r="20" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>2908</v>
+        <v>2904</v>
       </c>
       <c r="B20" s="125" t="s">
-        <v>3207</v>
+        <v>3201</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>3209</v>
+        <v>3203</v>
       </c>
       <c r="D20" s="125" t="s">
-        <v>3191</v>
+        <v>3187</v>
       </c>
     </row>
     <row customFormat="1" r="21" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="43" t="s">
-        <v>2909</v>
+        <v>2905</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>44</v>
@@ -32495,7 +32544,7 @@
     </row>
     <row customFormat="1" r="22" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="43" t="s">
-        <v>2910</v>
+        <v>2906</v>
       </c>
       <c r="B22" s="16" t="s">
         <v>203</v>
@@ -32525,21 +32574,21 @@
     </row>
     <row customFormat="1" r="24" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
-        <v>2911</v>
+        <v>2907</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>3143</v>
+        <v>3139</v>
       </c>
     </row>
     <row customFormat="1" r="25" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>2912</v>
+        <v>2908</v>
       </c>
       <c r="B25" s="16">
         <v>12</v>
@@ -32553,7 +32602,7 @@
     </row>
     <row customFormat="1" r="26" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>2913</v>
+        <v>2909</v>
       </c>
       <c r="B26" s="16">
         <v>23</v>
@@ -32567,7 +32616,7 @@
     </row>
     <row customFormat="1" r="27" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
       <c r="B27" s="16">
         <v>11530</v>
@@ -32581,49 +32630,49 @@
     </row>
     <row customFormat="1" r="28" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>2915</v>
+        <v>2911</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
     </row>
     <row customFormat="1" r="29" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>2916</v>
+        <v>2912</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>3144</v>
+        <v>3140</v>
       </c>
     </row>
     <row customFormat="1" r="30" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>2917</v>
+        <v>2913</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row customFormat="1" r="31" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>2918</v>
+        <v>2914</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>36</v>
@@ -32728,11 +32777,11 @@
       <c r="A1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>3219</v>
+      <c r="B1" s="112" t="s">
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>3220</v>
+        <v>3228</v>
       </c>
       <c r="D1" s="112" t="s">
         <v>6</v>
@@ -32764,13 +32813,13 @@
     </row>
     <row customFormat="1" r="2" s="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="112" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B2" s="16" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B2" s="112" t="s">
         <v>2588</v>
       </c>
-      <c r="C2" t="s">
-        <v>3223</v>
+      <c r="C2" s="112" t="s">
+        <v>2588</v>
       </c>
       <c r="D2" s="112" t="s">
         <v>2588</v>
@@ -32802,12 +32851,12 @@
     </row>
     <row customFormat="1" r="3" s="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="4" s="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="B4" s="107">
         <f>IF(AND(B13="Input Data",B14="Personal"),COUNTIFS($A19:$A21,"*$*",B19:B21,"")+COUNTIFS($A24:$A33,"*$*",B24:B33,"")+COUNTIFS($A35:$A38,"*$*",B35:B38,"")+COUNTIFS($A44:$A45,"*$*",B44:B45,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="Input Data",B14="Company"),COUNTIFS($A52:$A57,"*$*",B52:B57,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="Input Data",B14="Public",OR(B62="INSTANSI PUBLIK DAERAH",B62="INSTANSI PUBLIK PUSAT")),COUNTIFS($A62:$A66,"*$*",B62:B66,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="Input Data",B14="Public",OR(B62="MASYARAKAT",B62="PEMERINTAH REPUBLIK INDONESIA")),COUNTIFS($A62,"*$*",B62,"")+COUNTIFS($A65:$A66,"*$*",B65:B66,"")+IF(B70="",COUNTIFS($A71:$A78,"*$*",B71:B78,""),0),IF(AND(B13="LookUp",B14="Personal"),COUNTIFS($A16:$A18,"*$*",B16:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A30,"*$*",B30,"")+COUNTIFS($A44:$A45,"*$*",B44:B45,""),IF(AND(B13="LookUp",B14="Company"),COUNTIFS($A49:$A51,"*$*",B49:B51,"")+COUNTIFS($A54,"*$*",B54,"")))))))</f>
@@ -32837,13 +32886,13 @@
     <row customFormat="1" r="8" s="16" spans="1:12" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row customFormat="1" r="10" s="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="B10" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -32871,9 +32920,9 @@
       <c r="A12" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="16" t="str">
+      <c r="B12" s="16">
         <f>'1.TabCustomerMainData'!$C$13</f>
-        <v>0002APP20221206273</v>
+        <v>0</v>
       </c>
       <c r="C12" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
@@ -32888,7 +32937,7 @@
         <v>1979</v>
       </c>
       <c r="C13" s="83" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="D13" s="83" t="s">
         <v>1979</v>
@@ -32911,7 +32960,7 @@
         <v>38</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>3145</v>
+        <v>3141</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>41</v>
@@ -32928,54 +32977,48 @@
     </row>
     <row customFormat="1" r="16" s="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>2904</v>
-      </c>
-      <c r="C16" s="75" t="s">
-        <v>3084</v>
-      </c>
+        <v>2900</v>
+      </c>
+      <c r="C16" s="75"/>
       <c r="F16" s="16" t="s">
-        <v>3079</v>
+        <v>3075</v>
       </c>
     </row>
     <row customFormat="1" r="17" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
-        <v>2905</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>3086</v>
-      </c>
+        <v>2901</v>
+      </c>
+      <c r="C17" s="15"/>
       <c r="F17" s="16" t="s">
-        <v>3063</v>
+        <v>3059</v>
       </c>
     </row>
     <row customFormat="1" r="18" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
-        <v>2941</v>
+        <v>2937</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="2" t="s">
-        <v>3085</v>
-      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2" t="s">
-        <v>3080</v>
+        <v>3076</v>
       </c>
     </row>
     <row customFormat="1" r="19" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>2920</v>
+        <v>2916</v>
       </c>
       <c r="B19" t="s">
-        <v>3210</v>
+        <v>3204</v>
       </c>
       <c r="C19" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
     </row>
     <row customFormat="1" r="20" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>2921</v>
+        <v>2917</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>12</v>
@@ -32986,7 +33029,7 @@
     </row>
     <row customFormat="1" r="21" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>2922</v>
+        <v>2918</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -33013,20 +33056,20 @@
     </row>
     <row customFormat="1" r="24" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
-        <v>2923</v>
+        <v>2919</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3211</v>
+        <v>3205</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>3057</v>
+        <v>3053</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row customFormat="1" r="25" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>2910</v>
+        <v>2906</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>17</v>
@@ -33046,7 +33089,7 @@
     </row>
     <row customFormat="1" r="26" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
-        <v>2924</v>
+        <v>2920</v>
       </c>
       <c r="B26" s="16" t="str">
         <f>IF(B$25="Employee",VLOOKUP(B27,Master!$A:$B,2,FALSE),IF(B$25="Professional",VLOOKUP(B27,Master!$DG:$DH,2,FALSE),IF(B$25="Non Professional",VLOOKUP(B27,Master!$DJ:$DK,2,FALSE),IF(B$25="Small Medium Enterprise",VLOOKUP(B27,Master!$DM:$DN,2,FALSE)))))</f>
@@ -33071,7 +33114,7 @@
     </row>
     <row customFormat="1" r="27" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>2925</v>
+        <v>2921</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>288</v>
@@ -33091,7 +33134,7 @@
     </row>
     <row customFormat="1" r="28" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
-        <v>2926</v>
+        <v>2922</v>
       </c>
       <c r="B28" s="2" t="str">
         <f>VLOOKUP(B29,Master!$DP:$DQ,2,FALSE)</f>
@@ -33116,7 +33159,7 @@
     </row>
     <row customFormat="1" r="29" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>2927</v>
+        <v>2923</v>
       </c>
       <c r="B29" s="16" t="s">
         <v>2742</v>
@@ -33130,23 +33173,23 @@
     </row>
     <row customFormat="1" r="30" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
-        <v>2928</v>
+        <v>2924</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>3212</v>
+        <v>3206</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>3060</v>
+        <v>3056</v>
       </c>
       <c r="D30" s="76"/>
       <c r="E30" s="76"/>
       <c r="F30" s="2" t="s">
-        <v>3081</v>
+        <v>3077</v>
       </c>
     </row>
     <row customFormat="1" r="31" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>2929</v>
+        <v>2925</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>18</v>
@@ -33157,26 +33200,26 @@
     </row>
     <row customFormat="1" r="32" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>2930</v>
+        <v>2926</v>
       </c>
       <c r="B32" t="s">
-        <v>3055</v>
+        <v>3051</v>
       </c>
       <c r="C32" t="s">
-        <v>3199</v>
+        <v>3195</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
     </row>
     <row customFormat="1" r="33" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>2931</v>
+        <v>2927</v>
       </c>
       <c r="B33" s="125" t="s">
-        <v>3213</v>
+        <v>3207</v>
       </c>
       <c r="C33" t="s">
-        <v>3085</v>
+        <v>3081</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
@@ -33192,13 +33235,13 @@
     </row>
     <row customFormat="1" r="35" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>2932</v>
+        <v>2928</v>
       </c>
       <c r="B35" t="s">
-        <v>3214</v>
+        <v>3208</v>
       </c>
       <c r="C35" t="s">
-        <v>3200</v>
+        <v>3196</v>
       </c>
     </row>
     <row customFormat="1" r="36" s="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -33206,17 +33249,17 @@
         <v>20</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>3058</v>
+        <v>3054</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>3215</v>
+        <v>3209</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
     <row customFormat="1" r="37" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="46" t="s">
-        <v>2933</v>
+        <v>2929</v>
       </c>
       <c r="B37" s="16" t="str">
         <f>VLOOKUP(B38,Master!$I:$J,2,FALSE)</f>
@@ -33241,7 +33284,7 @@
     </row>
     <row customFormat="1" r="38" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>2934</v>
+        <v>2930</v>
       </c>
       <c r="B38" s="16" t="s">
         <v>2734</v>
@@ -33323,7 +33366,7 @@
     </row>
     <row customFormat="1" r="44" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="46" t="s">
-        <v>2935</v>
+        <v>2931</v>
       </c>
       <c r="B44" s="16" t="str">
         <f>VLOOKUP(B45,Master!$M:$N,2,FALSE)</f>
@@ -33348,7 +33391,7 @@
     </row>
     <row customFormat="1" r="45" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="43" t="s">
-        <v>2936</v>
+        <v>2932</v>
       </c>
       <c r="B45" s="16" t="s">
         <v>27</v>
@@ -33398,26 +33441,26 @@
     </row>
     <row customFormat="1" r="49" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="16" t="s">
-        <v>2904</v>
+        <v>2900</v>
       </c>
       <c r="B49" s="75" t="s">
-        <v>3104</v>
+        <v>3100</v>
       </c>
     </row>
     <row customFormat="1" r="50" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="16" t="s">
-        <v>2905</v>
+        <v>2901</v>
       </c>
       <c r="B50" s="16" t="s">
-        <v>3103</v>
+        <v>3099</v>
       </c>
     </row>
     <row customFormat="1" r="51" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="16" t="s">
-        <v>2906</v>
+        <v>2902</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>3105</v>
+        <v>3101</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -33425,31 +33468,31 @@
     </row>
     <row customFormat="1" r="52" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>2920</v>
+        <v>2916</v>
       </c>
       <c r="C52" t="s">
-        <v>3103</v>
+        <v>3099</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>3061</v>
+        <v>3057</v>
       </c>
     </row>
     <row customFormat="1" r="53" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>2908</v>
+        <v>2904</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s">
-        <v>3105</v>
+        <v>3101</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2" t="s">
-        <v>3062</v>
+        <v>3058</v>
       </c>
     </row>
     <row customFormat="1" r="54" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="46" t="s">
-        <v>2926</v>
+        <v>2922</v>
       </c>
       <c r="B54" s="2" t="str">
         <f>VLOOKUP(B55,Master!$DP:$DQ,2,FALSE)</f>
@@ -33470,7 +33513,7 @@
     </row>
     <row customFormat="1" r="55" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="16" t="s">
-        <v>2927</v>
+        <v>2923</v>
       </c>
       <c r="B55" s="16" t="s">
         <v>2741</v>
@@ -33481,7 +33524,7 @@
     </row>
     <row customFormat="1" r="56" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>2909</v>
+        <v>2905</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>204</v>
@@ -33492,7 +33535,7 @@
     </row>
     <row customFormat="1" r="57" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="16" t="s">
-        <v>2910</v>
+        <v>2906</v>
       </c>
       <c r="B57" s="16" t="s">
         <v>45</v>
@@ -33541,7 +33584,7 @@
     </row>
     <row customFormat="1" r="62" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>2937</v>
+        <v>2933</v>
       </c>
       <c r="D62" s="16" t="s">
         <v>2781</v>
@@ -33549,17 +33592,17 @@
     </row>
     <row customFormat="1" r="63" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>2938</v>
+        <v>2934</v>
       </c>
     </row>
     <row customFormat="1" r="64" s="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>2939</v>
+        <v>2935</v>
       </c>
     </row>
     <row customFormat="1" r="65" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="46" t="s">
-        <v>2926</v>
+        <v>2922</v>
       </c>
       <c r="B65" s="2" t="str">
         <f>VLOOKUP(B66,Master!$DP:$DQ,2,FALSE)</f>
@@ -33580,7 +33623,7 @@
     </row>
     <row customFormat="1" r="66" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="16" t="s">
-        <v>2927</v>
+        <v>2923</v>
       </c>
       <c r="B66" s="16" t="s">
         <v>2730</v>
@@ -33656,42 +33699,42 @@
     </row>
     <row customFormat="1" r="71" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="16" t="s">
-        <v>2911</v>
+        <v>2907</v>
       </c>
     </row>
     <row customFormat="1" r="72" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>2912</v>
+        <v>2908</v>
       </c>
     </row>
     <row customFormat="1" r="73" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="16" t="s">
-        <v>2913</v>
+        <v>2909</v>
       </c>
     </row>
     <row customFormat="1" r="74" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="16" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
     </row>
     <row customFormat="1" r="75" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="16" t="s">
-        <v>2915</v>
+        <v>2911</v>
       </c>
     </row>
     <row customFormat="1" r="76" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="16" t="s">
-        <v>2916</v>
+        <v>2912</v>
       </c>
     </row>
     <row customFormat="1" r="77" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="16" t="s">
-        <v>2917</v>
+        <v>2913</v>
       </c>
     </row>
     <row customFormat="1" r="78" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="16" t="s">
-        <v>2940</v>
+        <v>2936</v>
       </c>
       <c r="B78" s="16" t="s">
         <v>34</v>
@@ -33841,7 +33884,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C2"/>
+      <selection activeCell="C1" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33857,10 +33900,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3219</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3219</v>
+        <v>3228</v>
+      </c>
+      <c r="C1" s="112" t="s">
+        <v>6</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>6</v>
@@ -33877,12 +33920,12 @@
     </row>
     <row customFormat="1" r="2" s="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="112" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B2" s="16" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B2" s="112" t="s">
         <v>2588</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="112" t="s">
         <v>2588</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -33900,7 +33943,7 @@
     </row>
     <row customFormat="1" r="3" s="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="16" spans="1:7" x14ac:dyDescent="0.25"/>
@@ -33919,9 +33962,9 @@
         <f>'1.TabCustomerMainData'!$B$13</f>
         <v>0002APP20221206203</v>
       </c>
-      <c r="C12" s="16" t="str">
+      <c r="C12" s="16">
         <f>'1.TabCustomerMainData'!$C$13</f>
-        <v>0002APP20221206273</v>
+        <v>0</v>
       </c>
     </row>
     <row customHeight="1" ht="60" r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -33929,7 +33972,7 @@
         <v>93</v>
       </c>
       <c r="B14" s="141" t="s">
-        <v>3088</v>
+        <v>3084</v>
       </c>
       <c r="C14" s="141"/>
     </row>
@@ -33948,7 +33991,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
+      <selection activeCell="C12" pane="topRight" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33963,8 +34006,8 @@
       <c r="A1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>3219</v>
+      <c r="B1" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>6</v>
@@ -33993,7 +34036,7 @@
     </row>
     <row customFormat="1" r="2" s="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="112" t="s">
-        <v>2813</v>
+        <v>2812</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>2588</v>
@@ -34025,12 +34068,12 @@
     </row>
     <row customFormat="1" r="3" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="4" s="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="B4" s="107">
         <f>IF(B13="Input Data",COUNTIFS($A18:$A21,"*$*",B18:B21,"")+COUNTIFS($A23:$A28,"*$*",B23:B28,"")+COUNTIFS($A30:$A31,"*$*",B30:B31,"")+COUNTIFS($A33:$A34,"*$*",B33:B34,"")+IF(B38 = "No",COUNTIFS($A39:$A46,"*$*",B39:B46,""),0),IF(B13="LookUp",COUNTIFS($A15:$A18,"*$*",B15:B18,"")+COUNTIFS($A25,"*$*",B25,"")+COUNTIFS($A33:$A34,"*$*",$A33:$A34,"")))</f>
@@ -34059,13 +34102,13 @@
     <row customFormat="1" r="8" s="16" spans="1:10" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row customFormat="1" r="10" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="B10" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -34085,11 +34128,10 @@
       <c r="A12" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="16" t="str">
+      <c r="B12" s="16">
         <f>'1.TabCustomerMainData'!$C$13</f>
-        <v>0002APP20221206273</v>
-      </c>
-      <c r="C12" s="37"/>
+        <v>0</v>
+      </c>
       <c r="D12" s="37"/>
     </row>
     <row customFormat="1" r="13" s="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -34119,11 +34161,11 @@
     </row>
     <row customFormat="1" r="15" s="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>2904</v>
+        <v>2900</v>
       </c>
       <c r="B15" s="16"/>
       <c r="C15" s="16" t="s">
-        <v>3084</v>
+        <v>3080</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
@@ -34131,11 +34173,11 @@
     </row>
     <row customFormat="1" r="16" s="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>2905</v>
+        <v>2901</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16"/>
@@ -34143,11 +34185,11 @@
     </row>
     <row customFormat="1" r="17" s="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="44" t="s">
-        <v>2941</v>
+        <v>2937</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="2" t="s">
-        <v>3085</v>
+        <v>3081</v>
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
@@ -34155,7 +34197,7 @@
     </row>
     <row customFormat="1" r="18" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="43" t="s">
-        <v>2942</v>
+        <v>2938</v>
       </c>
       <c r="B18" s="16" t="s">
         <v>7</v>
@@ -34175,10 +34217,10 @@
     </row>
     <row customFormat="1" r="19" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>2943</v>
+        <v>2939</v>
       </c>
       <c r="B19" t="s">
-        <v>3148</v>
+        <v>3144</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>2714</v>
@@ -34195,7 +34237,7 @@
     </row>
     <row customFormat="1" r="20" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="44" t="s">
-        <v>2921</v>
+        <v>2917</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>12</v>
@@ -34215,7 +34257,7 @@
     </row>
     <row customFormat="1" r="21" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>2922</v>
+        <v>2918</v>
       </c>
       <c r="B21" t="s">
         <v>13</v>
@@ -34255,7 +34297,7 @@
     </row>
     <row customFormat="1" r="23" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="44" t="s">
-        <v>2944</v>
+        <v>2940</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>16</v>
@@ -34275,10 +34317,10 @@
     </row>
     <row customFormat="1" r="24" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
-        <v>2923</v>
+        <v>2919</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3059</v>
+        <v>3055</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>2610</v>
@@ -34295,7 +34337,7 @@
     </row>
     <row customFormat="1" r="25" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>2910</v>
+        <v>2906</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>201</v>
@@ -34315,7 +34357,7 @@
     </row>
     <row customFormat="1" r="26" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>2929</v>
+        <v>2925</v>
       </c>
       <c r="B26" s="16" t="s">
         <v>18</v>
@@ -34335,30 +34377,30 @@
     </row>
     <row customFormat="1" r="27" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
-        <v>2930</v>
+        <v>2926</v>
       </c>
       <c r="B27" t="s">
-        <v>3108</v>
+        <v>3104</v>
       </c>
       <c r="C27" s="55" t="s">
+        <v>2814</v>
+      </c>
+      <c r="D27" s="55" t="s">
         <v>2815</v>
       </c>
-      <c r="D27" s="55" t="s">
+      <c r="E27" s="55" t="s">
         <v>2816</v>
       </c>
-      <c r="E27" s="55" t="s">
+      <c r="F27" s="55" t="s">
         <v>2817</v>
-      </c>
-      <c r="F27" s="55" t="s">
-        <v>2818</v>
       </c>
     </row>
     <row customFormat="1" r="28" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>2931</v>
+        <v>2927</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>3198</v>
+        <v>3194</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2715</v>
@@ -34385,10 +34427,10 @@
     </row>
     <row customFormat="1" r="30" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>2932</v>
+        <v>2928</v>
       </c>
       <c r="B30" t="s">
-        <v>3149</v>
+        <v>3145</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>2716</v>
@@ -34405,10 +34447,10 @@
     </row>
     <row customFormat="1" r="31" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>2945</v>
+        <v>2941</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>3150</v>
+        <v>3146</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>2717</v>
@@ -34430,7 +34472,7 @@
     </row>
     <row customFormat="1" r="33" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="46" t="s">
-        <v>2935</v>
+        <v>2931</v>
       </c>
       <c r="B33" s="16" t="str">
         <f>VLOOKUP(B34,Master!$M:$N,2,FALSE)</f>
@@ -34455,7 +34497,7 @@
     </row>
     <row customFormat="1" r="34" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="43" t="s">
-        <v>2946</v>
+        <v>2942</v>
       </c>
       <c r="B34" s="16" t="s">
         <v>27</v>
@@ -34545,7 +34587,7 @@
     </row>
     <row customFormat="1" r="39" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="44" t="s">
-        <v>2911</v>
+        <v>2907</v>
       </c>
       <c r="C39" s="16" t="s">
         <v>2608</v>
@@ -34562,7 +34604,7 @@
     </row>
     <row customFormat="1" r="40" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="44" t="s">
-        <v>2912</v>
+        <v>2908</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
@@ -34580,7 +34622,7 @@
     </row>
     <row customFormat="1" r="41" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="44" t="s">
-        <v>2913</v>
+        <v>2909</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
@@ -34598,7 +34640,7 @@
     </row>
     <row customFormat="1" r="42" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
@@ -34616,7 +34658,7 @@
     </row>
     <row customFormat="1" r="43" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
-        <v>2915</v>
+        <v>2911</v>
       </c>
       <c r="C43" s="16" t="s">
         <v>33</v>
@@ -34633,7 +34675,7 @@
     </row>
     <row customFormat="1" r="44" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="44" t="s">
-        <v>2916</v>
+        <v>2912</v>
       </c>
       <c r="C44" s="16" t="s">
         <v>33</v>
@@ -34650,7 +34692,7 @@
     </row>
     <row customFormat="1" r="45" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
-        <v>2947</v>
+        <v>2943</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>1980</v>
@@ -34667,7 +34709,7 @@
     </row>
     <row customFormat="1" r="46" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>2918</v>
+        <v>2914</v>
       </c>
       <c r="C46" s="16" t="s">
         <v>35</v>
@@ -34835,7 +34877,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34850,11 +34892,11 @@
       <c r="A1" s="112" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
-        <v>3219</v>
-      </c>
-      <c r="C1" s="16" t="s">
+      <c r="B1" s="112" t="s">
         <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3228</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>6</v>
@@ -34877,12 +34919,12 @@
     </row>
     <row customFormat="1" r="2" s="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="112" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B2" s="16" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B2" s="112" t="s">
         <v>2588</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="112" t="s">
         <v>2588</v>
       </c>
       <c r="D2" s="16" t="s">
@@ -34906,12 +34948,12 @@
     </row>
     <row customFormat="1" r="3" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="4" s="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="B4" s="107">
         <f>IF(B13="Input Data",COUNTIFS($A17:$A21,"*$*",B17:B21,"")+IF(B23 = "No",COUNTIFS($A24:$A31,"*$*",B24:B31,""),0),IF(B13="LookUp",COUNTIFS($A15:$A16,"*$*",B15:B16,"")))</f>
@@ -34940,13 +34982,13 @@
     <row customFormat="1" r="8" s="16" spans="1:9" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row customFormat="1" r="10" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="B10" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -34966,9 +35008,13 @@
       <c r="A12" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="16" t="str">
+      <c r="B12" s="16">
         <f>'1.TabCustomerMainData'!$C$13</f>
-        <v>0002APP20221206273</v>
+        <v>0</v>
+      </c>
+      <c r="C12" s="16" t="str">
+        <f>'1.TabCustomerMainData'!$B13</f>
+        <v>0002APP20221206283</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -34998,10 +35044,10 @@
     </row>
     <row customFormat="1" r="15" s="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="44" t="s">
-        <v>2904</v>
+        <v>2900</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>3082</v>
+        <v>3078</v>
       </c>
       <c r="C15" s="16"/>
       <c r="D15" s="16"/>
@@ -35010,10 +35056,10 @@
     </row>
     <row customFormat="1" r="16" s="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="44" t="s">
-        <v>2905</v>
+        <v>2901</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>3083</v>
+        <v>3079</v>
       </c>
       <c r="C16" s="16"/>
       <c r="D16" s="16"/>
@@ -35022,7 +35068,7 @@
     </row>
     <row customFormat="1" r="17" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>2948</v>
+        <v>2944</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>43</v>
@@ -35042,36 +35088,36 @@
     </row>
     <row customFormat="1" r="18" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="44" t="s">
-        <v>2943</v>
+        <v>2939</v>
       </c>
       <c r="B18" t="s">
-        <v>3083</v>
+        <v>3079</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>3146</v>
+        <v>3142</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
       <c r="F18" s="16" t="s">
-        <v>2812</v>
+        <v>2811</v>
       </c>
     </row>
     <row customFormat="1" r="19" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="44" t="s">
-        <v>2908</v>
+        <v>2904</v>
       </c>
       <c r="B19" t="s">
-        <v>3197</v>
+        <v>3193</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>2718</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>3147</v>
+        <v>3143</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>2718</v>
@@ -35082,7 +35128,7 @@
     </row>
     <row customFormat="1" r="20" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>2909</v>
+        <v>2905</v>
       </c>
       <c r="B20" s="16" t="s">
         <v>180</v>
@@ -35102,7 +35148,7 @@
     </row>
     <row customFormat="1" r="21" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="44" t="s">
-        <v>2910</v>
+        <v>2906</v>
       </c>
       <c r="B21" s="16" t="s">
         <v>45</v>
@@ -35147,7 +35193,7 @@
     </row>
     <row customFormat="1" r="24" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="44" t="s">
-        <v>2911</v>
+        <v>2907</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>2609</v>
@@ -35161,7 +35207,7 @@
     </row>
     <row customFormat="1" r="25" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="44" t="s">
-        <v>2912</v>
+        <v>2908</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -35177,7 +35223,7 @@
     </row>
     <row customFormat="1" r="26" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>2913</v>
+        <v>2909</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -35193,7 +35239,7 @@
     </row>
     <row customFormat="1" r="27" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="44" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -35201,15 +35247,15 @@
         <v>11530</v>
       </c>
       <c r="E27" s="2" t="s">
+        <v>2818</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>2819</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>2820</v>
       </c>
     </row>
     <row customFormat="1" r="28" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="44" t="s">
-        <v>2915</v>
+        <v>2911</v>
       </c>
       <c r="D28" s="16" t="s">
         <v>46</v>
@@ -35223,7 +35269,7 @@
     </row>
     <row customFormat="1" r="29" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>2916</v>
+        <v>2912</v>
       </c>
       <c r="D29" s="16" t="s">
         <v>46</v>
@@ -35237,7 +35283,7 @@
     </row>
     <row customFormat="1" r="30" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>2947</v>
+        <v>2943</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>1980</v>
@@ -35251,7 +35297,7 @@
     </row>
     <row customFormat="1" r="31" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>2918</v>
+        <v>2914</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>34</v>
@@ -35374,7 +35420,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="A21" pane="topRight" sqref="A21:XFD21"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35390,8 +35436,8 @@
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>6</v>
+      <c r="B1" t="s">
+        <v>3228</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>6</v>
@@ -35414,9 +35460,9 @@
     </row>
     <row customFormat="1" r="2" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B2" s="16" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B2" s="112" t="s">
         <v>2588</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -35440,12 +35486,12 @@
     </row>
     <row customFormat="1" r="3" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row customFormat="1" ht="16.5" r="4" s="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="28" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="B4" s="107">
         <f>COUNTIFS($A$12:$A$21, "*$*",B12:B21, "")</f>
@@ -35463,7 +35509,7 @@
     <row customFormat="1" r="9" s="16" spans="1:8" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="10" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>3204</v>
+        <v>3199</v>
       </c>
       <c r="B10" s="129">
         <v>1</v>
@@ -35478,15 +35524,15 @@
     </row>
     <row customFormat="1" r="12" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="57" t="s">
-        <v>2950</v>
+        <v>2946</v>
       </c>
       <c r="B12" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
         <v>0002APP20221206265</v>
       </c>
-      <c r="C12" s="16" t="str">
+      <c r="C12" s="16">
         <f>'1.TabCustomerMainData'!$C$13</f>
-        <v>0002APP20221206282</v>
+        <v>0</v>
       </c>
       <c r="D12" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
@@ -35495,13 +35541,13 @@
     </row>
     <row customFormat="1" r="13" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="64" t="s">
-        <v>2905</v>
+        <v>2901</v>
       </c>
       <c r="B13" t="s">
         <v>2720</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>3208</v>
+        <v>3202</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>2720</v>
@@ -35509,114 +35555,114 @@
     </row>
     <row customFormat="1" ht="30" r="14" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
-        <v>2951</v>
+        <v>2947</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>3206</v>
+        <v>3200</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>3151</v>
+        <v>3147</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>3151</v>
-      </c>
-    </row>
-    <row customFormat="1" r="15" s="139" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="137" t="s">
-        <v>3051</v>
-      </c>
-      <c r="B15" s="138" t="s">
+        <v>3147</v>
+      </c>
+    </row>
+    <row customFormat="1" r="15" s="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="136" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B15" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="138" t="s">
+      <c r="C15" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="138" t="s">
+      <c r="D15" s="137" t="s">
         <v>40</v>
       </c>
     </row>
     <row customFormat="1" r="16" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="64" t="s">
-        <v>2952</v>
+        <v>2948</v>
       </c>
       <c r="B16" t="s">
-        <v>3086</v>
+        <v>3082</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>3210</v>
+        <v>3204</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>3153</v>
+        <v>3149</v>
       </c>
     </row>
     <row customFormat="1" ht="30" r="17" s="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="64" t="s">
-        <v>2953</v>
+        <v>2949</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>3206</v>
+        <v>3200</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>3151</v>
+        <v>3147</v>
       </c>
       <c r="D17" s="65" t="s">
-        <v>3154</v>
-      </c>
-    </row>
-    <row customFormat="1" r="18" s="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="137" t="s">
-        <v>3051</v>
-      </c>
-      <c r="B18" s="138" t="s">
+        <v>3150</v>
+      </c>
+    </row>
+    <row customFormat="1" r="18" s="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="136" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B18" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="138" t="s">
+      <c r="C18" s="137" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="138" t="s">
-        <v>3135</v>
+      <c r="D18" s="137" t="s">
+        <v>3131</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="64" t="s">
-        <v>2954</v>
+        <v>2950</v>
       </c>
       <c r="B19" s="130" t="s">
-        <v>3205</v>
+        <v>3213</v>
       </c>
       <c r="C19" s="130" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>3155</v>
+        <v>3151</v>
       </c>
     </row>
     <row customHeight="1" ht="32.25" r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="64" t="s">
-        <v>2955</v>
+        <v>2951</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>3156</v>
+        <v>3147</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>3216</v>
+        <v>3210</v>
       </c>
       <c r="D20" s="65" t="s">
-        <v>3156</v>
-      </c>
-    </row>
-    <row customFormat="1" r="21" s="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="137" t="s">
-        <v>3051</v>
-      </c>
-      <c r="B21" s="139" t="s">
-        <v>2956</v>
-      </c>
-      <c r="C21" s="139" t="s">
-        <v>2956</v>
-      </c>
-      <c r="D21" s="139" t="s">
-        <v>2956</v>
+        <v>3152</v>
+      </c>
+    </row>
+    <row customFormat="1" r="21" s="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="136" t="s">
+        <v>3047</v>
+      </c>
+      <c r="B21" s="138" t="s">
+        <v>2952</v>
+      </c>
+      <c r="C21" s="138" t="s">
+        <v>2952</v>
+      </c>
+      <c r="D21" s="138" t="s">
+        <v>2952</v>
       </c>
     </row>
     <row ht="49.5" r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -35632,7 +35678,7 @@
     <dataValidation errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B14:D15" type="list">
       <formula1>"New, Select SimilarData, Select ApplicationInProcess"</formula1>
     </dataValidation>
-    <dataValidation errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B20:D20 B17:D18"/>
+    <dataValidation errorStyle="information" showErrorMessage="1" showInputMessage="1" sqref="B17:D18 B20:D20"/>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" paperSize="9" r:id="rId1"/>
@@ -35647,7 +35693,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="B10" pane="topRight" sqref="B10"/>
+      <selection activeCell="C12" pane="topRight" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35664,8 +35710,8 @@
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="112" t="s">
-        <v>6</v>
+      <c r="B1" t="s">
+        <v>3228</v>
       </c>
       <c r="C1" s="112" t="s">
         <v>6</v>
@@ -35682,9 +35728,9 @@
     </row>
     <row customFormat="1" r="2" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B2" s="112" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B2" s="16" t="s">
         <v>2588</v>
       </c>
       <c r="C2" s="112" t="s">
@@ -35702,12 +35748,12 @@
     </row>
     <row customFormat="1" r="3" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="B4" s="16">
         <f>COUNTIFS($A13:$A17,"*$*",B13:B17,"")</f>
@@ -35728,13 +35774,13 @@
     <row customFormat="1" r="8" s="16" spans="1:10" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="9" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="B9" s="28"/>
     </row>
     <row customFormat="1" r="10" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="B10" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -35763,11 +35809,15 @@
       <c r="A12" s="57" t="s">
         <v>5</v>
       </c>
+      <c r="B12" s="16" t="str">
+        <f>'1.TabCustomerMainData'!$B13</f>
+        <v>0002APP20221206283</v>
+      </c>
       <c r="E12" s="37"/>
     </row>
     <row customFormat="1" r="13" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="43" t="s">
-        <v>2957</v>
+        <v>2953</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>47</v>
@@ -35787,16 +35837,16 @@
     </row>
     <row customFormat="1" r="14" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>2958</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>2720</v>
+        <v>2954</v>
+      </c>
+      <c r="B14" s="75" t="s">
+        <v>3221</v>
       </c>
       <c r="C14" s="75" t="s">
-        <v>3157</v>
+        <v>3153</v>
       </c>
       <c r="D14" s="75" t="s">
-        <v>3157</v>
+        <v>3153</v>
       </c>
       <c r="E14" s="16" t="s">
         <v>2611</v>
@@ -35812,7 +35862,7 @@
     </row>
     <row customFormat="1" r="16" s="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="43" t="s">
-        <v>2959</v>
+        <v>2955</v>
       </c>
       <c r="B16" s="16">
         <v>1</v>
@@ -35829,7 +35879,7 @@
     </row>
     <row customFormat="1" r="17" s="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>2960</v>
+        <v>2956</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>49</v>
@@ -35849,7 +35899,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>3152</v>
+        <v>3148</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>40</v>
@@ -35922,7 +35972,7 @@
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="A34" sqref="A34"/>
-      <selection activeCell="B14" pane="topRight" sqref="B14"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35935,8 +35985,8 @@
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="112" t="s">
-        <v>6</v>
+      <c r="B1" t="s">
+        <v>3229</v>
       </c>
       <c r="C1" s="112" t="s">
         <v>6</v>
@@ -35968,10 +36018,10 @@
     </row>
     <row customFormat="1" r="2" s="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B2" s="112" t="s">
-        <v>2588</v>
+        <v>2812</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3230</v>
       </c>
       <c r="C2" s="112" t="s">
         <v>2588</v>
@@ -36003,12 +36053,12 @@
     </row>
     <row customFormat="1" r="3" s="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>2814</v>
+        <v>2813</v>
       </c>
     </row>
     <row customFormat="1" r="4" s="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>2919</v>
+        <v>2915</v>
       </c>
       <c r="B4" s="16">
         <f>IF(AND(ISBLANK(B30),B50="Credit / Pembayaran yang Di Restrukturisasi", B25="Auto Debit"),COUNTIFS($A12:$A61,"*$*",B12:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Credit / Pembayaran yang Di Restrukturisasi", B25="Auto Debit"),COUNTIFS($A12:$A27,"*$*",B12:B27,"")+COUNTIFS($A50:$A61,"*$*",B50:B61,""),IF(AND(ISBLANK(B30),B50="Lainnya", B25="Auto Debit"),COUNTIFS($A12:$A50,"*$*",B12:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Lainnya", B25="Auto Debit"),COUNTIFS($A12:$A27,"*$*",B12:B27,"")+COUNTIFS($A50:$A50,"*$*",B50:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(ISBLANK(B30),B50="Lainnya", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A50,"*$*",B27:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Lainnya", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A27,"*$*",B27:B27,"")+COUNTIFS($A50:$A50,"*$*",B50:B50,"")+COUNTIFS($A54:$A61,"*$*",B54:B61,""),IF(AND(ISBLANK(B30),B50="Credit / Pembayaran yang Di Restrukturisasi", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A61,"*$*",B27:B61,""),IF(AND(NOT(ISBLANK(B30)),B50="Credit / Pembayaran yang Di Restrukturisasi", B25&lt;&gt;"Auto Debit"),COUNTIFS($A12:$A25,"*$*",B12:B25,"")+COUNTIFS($A27:$A27,"*$*",B27:B27,"")+COUNTIFS($A50:$A61,"*$*",B50:B61,"")))))))))</f>
@@ -36034,9 +36084,9 @@
         <f>'1.TabCustomerMainData'!$B$13</f>
         <v>0002APP20221206203</v>
       </c>
-      <c r="C8" s="16" t="str">
+      <c r="C8" s="16">
         <f>'1.TabCustomerMainData'!C$13</f>
-        <v>0002APP20221206273</v>
+        <v>0</v>
       </c>
       <c r="D8" s="16">
         <f>'1.TabCustomerMainData'!D$13</f>
@@ -36045,7 +36095,7 @@
     </row>
     <row customFormat="1" r="9" s="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>3073</v>
+        <v>3069</v>
       </c>
       <c r="B9" s="28"/>
       <c r="C9" s="28"/>
@@ -36053,7 +36103,7 @@
     </row>
     <row customFormat="1" r="10" s="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>3052</v>
+        <v>3048</v>
       </c>
       <c r="B10" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$10</f>
@@ -36075,22 +36125,22 @@
     </row>
     <row customFormat="1" r="12" s="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="43" t="s">
-        <v>2961</v>
+        <v>2957</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C12" s="2" t="s">
+        <v>2821</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>2822</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>2823</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>2824</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>2825</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -36100,7 +36150,7 @@
     </row>
     <row customFormat="1" r="14" s="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="43" t="s">
-        <v>2962</v>
+        <v>2958</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>2614</v>
@@ -36130,22 +36180,22 @@
     </row>
     <row customFormat="1" r="17" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="43" t="s">
-        <v>2963</v>
+        <v>2959</v>
       </c>
       <c r="B17" s="16" t="s">
         <v>251</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>2825</v>
+      </c>
+      <c r="D17" s="16" t="s">
         <v>2826</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="E17" s="16" t="s">
         <v>2827</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="F17" s="16" t="s">
         <v>2828</v>
-      </c>
-      <c r="F17" s="16" t="s">
-        <v>2829</v>
       </c>
     </row>
     <row customFormat="1" r="18" s="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -36170,7 +36220,7 @@
     </row>
     <row customFormat="1" r="19" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="43" t="s">
-        <v>2964</v>
+        <v>2960</v>
       </c>
       <c r="B19" s="16" t="s">
         <v>61</v>
@@ -36190,7 +36240,7 @@
     </row>
     <row customFormat="1" r="20" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="43" t="s">
-        <v>2965</v>
+        <v>2961</v>
       </c>
       <c r="B20" s="16">
         <v>12</v>
@@ -36235,7 +36285,7 @@
     </row>
     <row customFormat="1" r="23" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="43" t="s">
-        <v>2966</v>
+        <v>2962</v>
       </c>
       <c r="B23" s="16" t="s">
         <v>2588</v>
@@ -36255,7 +36305,7 @@
     </row>
     <row customFormat="1" r="24" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="43" t="s">
-        <v>2967</v>
+        <v>2963</v>
       </c>
       <c r="B24" s="16" t="s">
         <v>186</v>
@@ -36275,7 +36325,7 @@
     </row>
     <row customFormat="1" r="25" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="43" t="s">
-        <v>2968</v>
+        <v>2964</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>62</v>
@@ -36295,7 +36345,7 @@
     </row>
     <row customFormat="1" r="26" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="44" t="s">
-        <v>2969</v>
+        <v>2965</v>
       </c>
       <c r="B26" s="16">
         <v>1</v>
@@ -36315,7 +36365,7 @@
     </row>
     <row customFormat="1" r="27" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="43" t="s">
-        <v>2970</v>
+        <v>2966</v>
       </c>
       <c r="B27" s="16" t="s">
         <v>63</v>
@@ -36362,27 +36412,27 @@
     </row>
     <row customFormat="1" r="31" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="44" t="s">
-        <v>2911</v>
+        <v>2907</v>
       </c>
       <c r="B31" s="16" t="s">
         <v>2685</v>
       </c>
       <c r="C31" s="16" t="s">
+        <v>2829</v>
+      </c>
+      <c r="D31" s="16" t="s">
         <v>2830</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="E31" s="16" t="s">
         <v>2831</v>
       </c>
-      <c r="E31" s="16" t="s">
+      <c r="F31" s="16" t="s">
         <v>2832</v>
-      </c>
-      <c r="F31" s="16" t="s">
-        <v>2833</v>
       </c>
     </row>
     <row customFormat="1" r="32" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="44" t="s">
-        <v>2912</v>
+        <v>2908</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
@@ -36402,7 +36452,7 @@
     </row>
     <row customFormat="1" r="33" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="44" t="s">
-        <v>2913</v>
+        <v>2909</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -36422,7 +36472,7 @@
     </row>
     <row customFormat="1" r="34" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="44" t="s">
-        <v>2914</v>
+        <v>2910</v>
       </c>
       <c r="B34" s="16">
         <v>11530</v>
@@ -36442,7 +36492,7 @@
     </row>
     <row customFormat="1" r="35" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
-        <v>2915</v>
+        <v>2911</v>
       </c>
       <c r="B35" s="16" t="s">
         <v>2722</v>
@@ -36462,7 +36512,7 @@
     </row>
     <row customFormat="1" r="36" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="44" t="s">
-        <v>2916</v>
+        <v>2912</v>
       </c>
       <c r="B36" s="16" t="s">
         <v>2722</v>
@@ -36482,22 +36532,22 @@
     </row>
     <row customFormat="1" r="37" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="44" t="s">
-        <v>2917</v>
+        <v>2913</v>
       </c>
       <c r="B37" s="16" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>2821</v>
+        <v>2820</v>
       </c>
     </row>
     <row customFormat="1" r="38" s="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -36577,7 +36627,7 @@
     </row>
     <row customFormat="1" r="50" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="43" t="s">
-        <v>2971</v>
+        <v>2967</v>
       </c>
       <c r="B50" s="16" t="s">
         <v>79</v>
@@ -36602,7 +36652,7 @@
     </row>
     <row customFormat="1" r="52" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="44" t="s">
-        <v>2972</v>
+        <v>2968</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>216</v>
@@ -36647,7 +36697,7 @@
     </row>
     <row customFormat="1" r="54" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="43" t="s">
-        <v>2973</v>
+        <v>2969</v>
       </c>
       <c r="B54" s="16" t="s">
         <v>1946</v>
@@ -36672,7 +36722,7 @@
     </row>
     <row customFormat="1" r="56" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="43" t="s">
-        <v>2974</v>
+        <v>2970</v>
       </c>
       <c r="B56" s="16" t="s">
         <v>114</v>
@@ -36706,16 +36756,16 @@
         <v>2784</v>
       </c>
       <c r="C58" s="29" t="s">
+        <v>2833</v>
+      </c>
+      <c r="D58" s="29" t="s">
         <v>2834</v>
       </c>
-      <c r="D58" s="29" t="s">
+      <c r="E58" s="29" t="s">
         <v>2835</v>
       </c>
-      <c r="E58" s="29" t="s">
+      <c r="F58" s="29" t="s">
         <v>2836</v>
-      </c>
-      <c r="F58" s="29" t="s">
-        <v>2837</v>
       </c>
     </row>
     <row customFormat="1" r="59" s="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -36745,7 +36795,7 @@
     </row>
     <row customFormat="1" r="60" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="43" t="s">
-        <v>2975</v>
+        <v>2971</v>
       </c>
       <c r="B60" s="16" t="s">
         <v>183</v>
@@ -36765,7 +36815,7 @@
     </row>
     <row customFormat="1" r="61" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="43" t="s">
-        <v>2976</v>
+        <v>2972</v>
       </c>
       <c r="B61" s="16">
         <v>1</v>
@@ -36785,31 +36835,31 @@
     </row>
     <row customFormat="1" customHeight="1" ht="14.25" r="62" s="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="142" t="s">
-        <v>3127</v>
+        <v>3123</v>
       </c>
     </row>
     <row customFormat="1" r="63" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
-        <v>3128</v>
+        <v>3124</v>
       </c>
       <c r="B63" s="16" t="s">
-        <v>3129</v>
+        <v>3125</v>
       </c>
     </row>
     <row customFormat="1" r="64" s="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="16" t="s">
-        <v>3130</v>
+        <v>3126</v>
       </c>
       <c r="B64" s="16" t="s">
-        <v>3131</v>
+        <v>3127</v>
       </c>
     </row>
     <row customFormat="1" r="65" s="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="16" t="s">
-        <v>3132</v>
+        <v>3128</v>
       </c>
       <c r="B65" s="16" t="s">
-        <v>3133</v>
+        <v>3129</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/CF4W/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/CF4W/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="18" firstSheet="14" tabRatio="769" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="1" tabRatio="769" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" r:id="rId1" sheetId="5"/>
@@ -1747,8 +1747,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-1 = Run Dupcheck
-0 = Skip Dupcheck</t>
+1 = DupCheck Output Yes
+0 = DupCheck Output No</t>
         </r>
       </text>
     </comment>
@@ -3252,7 +3252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4602" uniqueCount="3233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4581" uniqueCount="3231">
   <si>
     <t>Count</t>
   </si>
@@ -12858,9 +12858,6 @@
     <t>FT SURYA;</t>
   </si>
   <si>
-    <t>Run DupCheck</t>
-  </si>
-  <si>
     <t>Select SimilarData</t>
   </si>
   <si>
@@ -12936,15 +12933,6 @@
     <t>Provision Fee Calculation</t>
   </si>
   <si>
-    <t>0002APP20221206343</t>
-  </si>
-  <si>
-    <t>14.692906</t>
-  </si>
-  <si>
-    <t>0002APP20221206347</t>
-  </si>
-  <si>
     <t>SUCCESS</t>
   </si>
   <si>
@@ -12958,6 +12946,12 @@
   </si>
   <si>
     <t>14.694827</t>
+  </si>
+  <si>
+    <t>Dupcheck Output</t>
+  </si>
+  <si>
+    <t>0002APP20221206342</t>
   </si>
 </sst>
 </file>
@@ -16475,10 +16469,10 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="A43" sqref="A43"/>
-      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
+      <selection activeCell="B41" pane="topRight" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16493,7 +16487,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3228</v>
+        <v>3224</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>6</v>
@@ -16589,7 +16583,7 @@
       </c>
       <c r="B8" s="16" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206120</v>
+        <v>0002APP20221206342</v>
       </c>
       <c r="C8" s="16">
         <f>'1.TabCustomerMainData'!C$13</f>
@@ -17114,7 +17108,7 @@
         <v>95</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>40</v>
@@ -17960,7 +17954,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3228</v>
+        <v>3224</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>6</v>
@@ -18051,7 +18045,7 @@
       </c>
       <c r="B12" s="16" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206321</v>
+        <v>0002APP20221206342</v>
       </c>
       <c r="C12" s="37"/>
     </row>
@@ -18352,7 +18346,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3229</v>
+        <v>3225</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>6</v>
@@ -18384,7 +18378,7 @@
         <v>2812</v>
       </c>
       <c r="B2" t="s">
-        <v>3231</v>
+        <v>3227</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>2588</v>
@@ -18438,7 +18432,7 @@
       </c>
       <c r="B8" s="16" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206120</v>
+        <v>0002APP20221206342</v>
       </c>
       <c r="C8" s="16">
         <f>'1.TabCustomerMainData'!C$13</f>
@@ -19585,8 +19579,8 @@
       <c r="A85" s="16" t="s">
         <v>3038</v>
       </c>
-      <c r="B85" t="n">
-        <v>0.0</v>
+      <c r="B85">
+        <v>0</v>
       </c>
     </row>
     <row customFormat="1" r="86" s="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -19627,7 +19621,7 @@
       </c>
       <c r="B89" s="114">
         <f>B88+SUMIFS('7a.Accessories'!17:17,'7a.Accessories'!12:12,B8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")</f>
-        <v>1000000000</v>
+        <v>1001000000</v>
       </c>
       <c r="C89" s="114">
         <f>C88+SUMIFS('7a.Accessories'!17:17,'7a.Accessories'!12:12,C8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")</f>
@@ -19913,7 +19907,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3229</v>
+        <v>3225</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>6</v>
@@ -19948,7 +19942,7 @@
         <v>2812</v>
       </c>
       <c r="B2" t="s">
-        <v>3230</v>
+        <v>3226</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>2588</v>
@@ -20005,7 +19999,7 @@
       </c>
       <c r="B8" s="16" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206256</v>
+        <v>0002APP20221206342</v>
       </c>
       <c r="C8" s="16">
         <f>'1.TabCustomerMainData'!C$13</f>
@@ -20046,10 +20040,10 @@
         <v>3017</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>3214</v>
+        <v>3213</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>105</v>
@@ -20066,10 +20060,10 @@
         <v>3064</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>3215</v>
+        <v>3214</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
     </row>
     <row customFormat="1" r="14" s="16" spans="1:11" x14ac:dyDescent="0.25">
@@ -20077,10 +20071,10 @@
         <v>3018</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>3216</v>
+        <v>3215</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="D14" s="16" t="s">
         <v>136</v>
@@ -20097,10 +20091,10 @@
         <v>3019</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>3217</v>
+        <v>3216</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="D15" s="16" t="s">
         <v>137</v>
@@ -20117,10 +20111,10 @@
         <v>3020</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>3218</v>
+        <v>3217</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>94</v>
@@ -20137,10 +20131,10 @@
         <v>3021</v>
       </c>
       <c r="B17" t="s">
-        <v>3220</v>
+        <v>3219</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
       <c r="D17" s="15">
         <v>1000002</v>
@@ -20157,10 +20151,10 @@
         <v>3022</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>3219</v>
+        <v>3218</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>3211</v>
+        <v>3210</v>
       </c>
     </row>
     <row customFormat="1" r="19" s="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -20197,8 +20191,8 @@
       <c r="A21" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B21" t="n">
-        <v>150000.0</v>
+      <c r="B21">
+        <v>150000</v>
       </c>
       <c r="C21" s="22">
         <v>150000</v>
@@ -20648,7 +20642,7 @@
         <v>162</v>
       </c>
       <c r="B44" t="s">
-        <v>3232</v>
+        <v>3228</v>
       </c>
       <c r="C44" s="2">
         <v>10.007128</v>
@@ -20808,8 +20802,8 @@
       <c r="A53" s="11" t="s">
         <v>3106</v>
       </c>
-      <c r="B53" t="n">
-        <v>300000.0</v>
+      <c r="B53">
+        <v>300000</v>
       </c>
       <c r="C53" s="16">
         <v>0</v>
@@ -20826,7 +20820,7 @@
       </c>
       <c r="B55" s="128">
         <f>SUM(B56:B57)</f>
-        <v>1000000000</v>
+        <v>1001000000</v>
       </c>
       <c r="C55" s="128">
         <f>SUM(C56:C57)</f>
@@ -20852,7 +20846,7 @@
       </c>
       <c r="B57" s="128">
         <f>SUMIFS('7a.Accessories'!17:17,'7a.Accessories'!12:12,B8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")</f>
-        <v>0</v>
+        <v>1000000</v>
       </c>
       <c r="C57" s="128">
         <f>SUMIFS('7a.Accessories'!17:17,'7a.Accessories'!12:12,C8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")</f>
@@ -20904,7 +20898,7 @@
       </c>
       <c r="B61" s="128">
         <f>SUMIFS('7a.Accessories'!24:24,'7a.Accessories'!12:12,B8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")+'7.TabAssetData'!B70</f>
-        <v>350000000</v>
+        <v>350120000</v>
       </c>
       <c r="C61" s="128">
         <f>SUMIFS('7a.Accessories'!24:24,'7a.Accessories'!12:12,C8,'7a.Accessories'!4:4,"0",'7a.Accessories'!1:1,"SUCCESS")+'7.TabAssetData'!C70</f>
@@ -20917,7 +20911,7 @@
       </c>
       <c r="B62" s="128">
         <f>B61-B53</f>
-        <v>349700000</v>
+        <v>349820000</v>
       </c>
       <c r="C62" s="128">
         <f>C61-C53</f>
@@ -20930,7 +20924,7 @@
       </c>
       <c r="B63" s="128">
         <f>IF(B37= "OTR-DP",B39/(B55-B61)*100,IF(B37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",B39*100/(B55-B61+B60+(B59-B41))))</f>
-        <v>0.34591968513621546</v>
+        <v>0.34545231222747652</v>
       </c>
       <c r="C63" s="128">
         <f>IF(C37= "OTR-DP",C39/(C55-C61)*100,IF(C37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",C39*100/(C55-C61+C60+(C59-C41))))</f>
@@ -20959,8 +20953,8 @@
       <c r="A66" s="11" t="s">
         <v>3117</v>
       </c>
-      <c r="B66" t="n">
-        <v>3.62598E8</v>
+      <c r="B66">
+        <v>362598000</v>
       </c>
       <c r="C66" s="16">
         <v>362678000</v>
@@ -20970,8 +20964,8 @@
       <c r="A67" s="11" t="s">
         <v>3118</v>
       </c>
-      <c r="B67" t="n">
-        <v>6.5232E8</v>
+      <c r="B67">
+        <v>652320000</v>
       </c>
       <c r="C67" s="16">
         <v>651440000</v>
@@ -20981,8 +20975,8 @@
       <c r="A68" s="11" t="s">
         <v>3119</v>
       </c>
-      <c r="B68" t="n">
-        <v>7.9853E7</v>
+      <c r="B68">
+        <v>79853000</v>
       </c>
       <c r="C68" s="16">
         <v>79742000</v>
@@ -20992,8 +20986,8 @@
       <c r="A69" s="11" t="s">
         <v>3120</v>
       </c>
-      <c r="B69" t="n">
-        <v>6.635700155E7</v>
+      <c r="B69">
+        <v>66357001.549999997</v>
       </c>
       <c r="C69" s="16">
         <v>66237997.920000002</v>
@@ -21003,8 +20997,8 @@
       <c r="A70" s="11" t="s">
         <v>3121</v>
       </c>
-      <c r="B70" t="n">
-        <v>7.1867700155E8</v>
+      <c r="B70">
+        <v>718677001.54999995</v>
       </c>
       <c r="C70" s="16">
         <v>717677997.91999996</v>
@@ -21014,8 +21008,8 @@
       <c r="A71" s="11" t="s">
         <v>3122</v>
       </c>
-      <c r="B71" t="n">
-        <v>16.08129146</v>
+      <c r="B71">
+        <v>16.081291459999999</v>
       </c>
       <c r="C71" s="16">
         <v>15.862095030000001</v>
@@ -21023,11 +21017,11 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="115" t="s">
-        <v>3223</v>
+        <v>3222</v>
       </c>
       <c r="B72" s="140">
         <f>B62*100/B55</f>
-        <v>34.97</v>
+        <v>34.947052947052946</v>
       </c>
       <c r="C72" s="140">
         <f>C62*100/C55</f>
@@ -21036,11 +21030,11 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="115" t="s">
-        <v>3224</v>
+        <v>3223</v>
       </c>
       <c r="B73" s="15">
         <f>IF(B37= "OTR-DP",(B55-B61),IF(B37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",(B55-B61+B60+(B59-B41))))</f>
-        <v>650440000</v>
+        <v>651320000</v>
       </c>
       <c r="C73" s="15">
         <f>IF(C37= "OTR-DP",(C55-C61),IF(C37="OTR-DP + Ins Cptlz + Fee Cptlz(Excl. Provision)",(C55-C61+C60+(C59-C41))))</f>
@@ -21435,7 +21429,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3228</v>
+        <v>3224</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>6</v>
@@ -21519,7 +21513,7 @@
       </c>
       <c r="B8" s="16" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206120</v>
+        <v>0002APP20221206342</v>
       </c>
       <c r="C8" s="16">
         <f>'1.TabCustomerMainData'!C$13</f>
@@ -21777,11 +21771,11 @@
       </c>
       <c r="B12" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20221206120</v>
+        <v>0002APP20221206342</v>
       </c>
       <c r="C12" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20221206120</v>
+        <v>0002APP20221206342</v>
       </c>
       <c r="D12" s="16">
         <f>'1.TabCustomerMainData'!$C$13</f>
@@ -21895,7 +21889,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3228</v>
+        <v>3224</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>6</v>
@@ -21963,7 +21957,7 @@
       </c>
       <c r="B8" s="16" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206120</v>
+        <v>0002APP20221206342</v>
       </c>
       <c r="C8" s="16">
         <f>'1.TabCustomerMainData'!C$13</f>
@@ -22666,7 +22660,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3228</v>
+        <v>3224</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>6</v>
@@ -22740,7 +22734,7 @@
       </c>
       <c r="B8" s="16" t="str">
         <f>'1.TabCustomerMainData'!B$13</f>
-        <v>0002APP20221206120</v>
+        <v>0002APP20221206342</v>
       </c>
       <c r="C8" s="16">
         <f>'1.TabCustomerMainData'!C$13</f>
@@ -22786,8 +22780,8 @@
       <c r="A13" s="52" t="s">
         <v>3042</v>
       </c>
-      <c r="B13" t="n">
-        <v>0.0</v>
+      <c r="B13">
+        <v>0</v>
       </c>
       <c r="C13" s="134">
         <v>0</v>
@@ -22797,8 +22791,8 @@
       <c r="A14" s="52" t="s">
         <v>3043</v>
       </c>
-      <c r="B14" t="n">
-        <v>0.0</v>
+      <c r="B14">
+        <v>0</v>
       </c>
       <c r="C14" s="134">
         <v>0</v>
@@ -22944,7 +22938,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3228</v>
+        <v>3224</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>6</v>
@@ -23034,11 +23028,11 @@
       </c>
       <c r="B12" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20221206120</v>
+        <v>0002APP20221206342</v>
       </c>
       <c r="C12" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20221206273</v>
+        <v>0002APP20221206342</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -23049,7 +23043,7 @@
         <v>2720</v>
       </c>
       <c r="C13" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
     </row>
     <row customFormat="1" r="14" s="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -23071,7 +23065,7 @@
         <v>3198</v>
       </c>
       <c r="C15" t="s">
-        <v>3212</v>
+        <v>3211</v>
       </c>
     </row>
     <row customFormat="1" r="16" s="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -23090,7 +23084,7 @@
         <v>3031</v>
       </c>
       <c r="B17" t="s">
-        <v>3222</v>
+        <v>3221</v>
       </c>
       <c r="C17" t="s">
         <v>3151</v>
@@ -23130,7 +23124,7 @@
   <sheetPr codeName="Sheet19"/>
   <dimension ref="A1:DT476"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" workbookViewId="0">
+    <sheetView topLeftCell="BC1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A2" ySplit="1"/>
       <selection activeCell="BH1" pane="bottomLeft" sqref="BH1:BH8"/>
     </sheetView>
@@ -32274,9 +32268,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
+      <selection activeCell="B13" pane="topRight" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32293,7 +32287,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3228</v>
+        <v>3224</v>
       </c>
       <c r="C1" s="112" t="s">
         <v>6</v>
@@ -32426,7 +32420,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>3227</v>
+        <v>3230</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -32502,7 +32496,7 @@
         <v>2720</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>2720</v>
@@ -32513,10 +32507,10 @@
         <v>2904</v>
       </c>
       <c r="B20" s="125" t="s">
-        <v>3201</v>
+        <v>3200</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>3203</v>
+        <v>3202</v>
       </c>
       <c r="D20" s="125" t="s">
         <v>3187</v>
@@ -32781,7 +32775,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>3228</v>
+        <v>3224</v>
       </c>
       <c r="D1" s="112" t="s">
         <v>6</v>
@@ -32926,7 +32920,7 @@
       </c>
       <c r="C12" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20221206274</v>
+        <v>0002APP20221206342</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="84" spans="1:12" x14ac:dyDescent="0.25">
@@ -33010,7 +33004,7 @@
         <v>2916</v>
       </c>
       <c r="B19" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="C19" t="s">
         <v>3082</v>
@@ -33059,7 +33053,7 @@
         <v>2919</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>3205</v>
+        <v>3204</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>3053</v>
@@ -33176,7 +33170,7 @@
         <v>2924</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>3206</v>
+        <v>3205</v>
       </c>
       <c r="C30" s="29" t="s">
         <v>3056</v>
@@ -33216,7 +33210,7 @@
         <v>2927</v>
       </c>
       <c r="B33" s="125" t="s">
-        <v>3207</v>
+        <v>3206</v>
       </c>
       <c r="C33" t="s">
         <v>3081</v>
@@ -33238,7 +33232,7 @@
         <v>2928</v>
       </c>
       <c r="B35" t="s">
-        <v>3208</v>
+        <v>3207</v>
       </c>
       <c r="C35" t="s">
         <v>3196</v>
@@ -33252,7 +33246,7 @@
         <v>3054</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>3209</v>
+        <v>3208</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -33900,7 +33894,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3228</v>
+        <v>3224</v>
       </c>
       <c r="C1" s="112" t="s">
         <v>6</v>
@@ -33960,7 +33954,7 @@
       </c>
       <c r="B12" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20221206203</v>
+        <v>0002APP20221206342</v>
       </c>
       <c r="C12" s="16">
         <f>'1.TabCustomerMainData'!$C$13</f>
@@ -34896,7 +34890,7 @@
         <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>3228</v>
+        <v>3224</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>6</v>
@@ -35014,7 +35008,7 @@
       </c>
       <c r="C12" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B13</f>
-        <v>0002APP20221206283</v>
+        <v>0002APP20221206342</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -35420,7 +35414,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
+      <selection activeCell="A10" pane="topRight" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35437,7 +35431,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3228</v>
+        <v>3224</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>6</v>
@@ -35509,7 +35503,7 @@
     <row customFormat="1" r="9" s="16" spans="1:8" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="10" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>3199</v>
+        <v>3229</v>
       </c>
       <c r="B10" s="129">
         <v>1</v>
@@ -35528,7 +35522,7 @@
       </c>
       <c r="B12" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20221206265</v>
+        <v>0002APP20221206342</v>
       </c>
       <c r="C12" s="16">
         <f>'1.TabCustomerMainData'!$C$13</f>
@@ -35536,7 +35530,7 @@
       </c>
       <c r="D12" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20221206120</v>
+        <v>0002APP20221206342</v>
       </c>
     </row>
     <row customFormat="1" r="13" s="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -35547,7 +35541,7 @@
         <v>2720</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>3202</v>
+        <v>3201</v>
       </c>
       <c r="D13" s="16" t="s">
         <v>2720</v>
@@ -35558,7 +35552,7 @@
         <v>2947</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="C14" s="65" t="s">
         <v>3147</v>
@@ -35589,7 +35583,7 @@
         <v>3082</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>3204</v>
+        <v>3203</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>3149</v>
@@ -35600,7 +35594,7 @@
         <v>2949</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="C17" s="65" t="s">
         <v>3147</v>
@@ -35628,7 +35622,7 @@
         <v>2950</v>
       </c>
       <c r="B19" s="130" t="s">
-        <v>3213</v>
+        <v>3212</v>
       </c>
       <c r="C19" s="130" t="s">
         <v>3151</v>
@@ -35645,7 +35639,7 @@
         <v>3147</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>3210</v>
+        <v>3209</v>
       </c>
       <c r="D20" s="65" t="s">
         <v>3152</v>
@@ -35711,7 +35705,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3228</v>
+        <v>3224</v>
       </c>
       <c r="C1" s="112" t="s">
         <v>6</v>
@@ -35811,7 +35805,7 @@
       </c>
       <c r="B12" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B13</f>
-        <v>0002APP20221206283</v>
+        <v>0002APP20221206342</v>
       </c>
       <c r="E12" s="37"/>
     </row>
@@ -35840,7 +35834,7 @@
         <v>2954</v>
       </c>
       <c r="B14" s="75" t="s">
-        <v>3221</v>
+        <v>3220</v>
       </c>
       <c r="C14" s="75" t="s">
         <v>3153</v>
@@ -35986,7 +35980,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3229</v>
+        <v>3225</v>
       </c>
       <c r="C1" s="112" t="s">
         <v>6</v>
@@ -36021,7 +36015,7 @@
         <v>2812</v>
       </c>
       <c r="B2" t="s">
-        <v>3230</v>
+        <v>3226</v>
       </c>
       <c r="C2" s="112" t="s">
         <v>2588</v>
@@ -36082,7 +36076,7 @@
       </c>
       <c r="B8" s="16" t="str">
         <f>'1.TabCustomerMainData'!$B$13</f>
-        <v>0002APP20221206203</v>
+        <v>0002APP20221206342</v>
       </c>
       <c r="C8" s="16">
         <f>'1.TabCustomerMainData'!C$13</f>

--- a/Excel/CF4W/2.2 DataFile_NAP_CF4W_Company.xlsx
+++ b/Excel/CF4W/2.2 DataFile_NAP_CF4W_Company.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="769" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="8" firstSheet="5" tabRatio="769" windowHeight="7650" windowWidth="20490" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="0.Setting" r:id="rId1" sheetId="5"/>
@@ -3252,7 +3252,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4581" uniqueCount="3231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4603" uniqueCount="3236">
   <si>
     <t>Count</t>
   </si>
@@ -12942,16 +12942,31 @@
     <t>-;Failed Verify Match / Equal</t>
   </si>
   <si>
+    <t>14.694827</t>
+  </si>
+  <si>
+    <t>Dupcheck Output</t>
+  </si>
+  <si>
+    <t>0002APP20221206477</t>
+  </si>
+  <si>
+    <t>Button Save Tidak Berfungsi;Failed Verify Match / Equal</t>
+  </si>
+  <si>
+    <t>0002APP20221206479</t>
+  </si>
+  <si>
+    <t>-;Failed Store DB</t>
+  </si>
+  <si>
     <t>Button Save Tidak Berfungsi</t>
   </si>
   <si>
-    <t>14.694827</t>
-  </si>
-  <si>
-    <t>Dupcheck Output</t>
-  </si>
-  <si>
-    <t>0002APP20221206342</t>
+    <t>14.696748</t>
+  </si>
+  <si>
+    <t>-;Failed Verify Match / Equal;Failed Verify Match / Equal</t>
   </si>
 </sst>
 </file>
@@ -16487,7 +16502,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3224</v>
+        <v>3225</v>
       </c>
       <c r="C1" s="16" t="s">
         <v>6</v>
@@ -16515,8 +16530,8 @@
       <c r="A2" s="16" t="s">
         <v>2812</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>2588</v>
+      <c r="B2" t="s">
+        <v>3232</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>2588</v>
@@ -18378,7 +18393,7 @@
         <v>2812</v>
       </c>
       <c r="B2" t="s">
-        <v>3227</v>
+        <v>3233</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>2588</v>
@@ -19579,8 +19594,8 @@
       <c r="A85" s="16" t="s">
         <v>3038</v>
       </c>
-      <c r="B85">
-        <v>0</v>
+      <c r="B85" t="n">
+        <v>0.0</v>
       </c>
     </row>
     <row customFormat="1" r="86" s="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -19942,7 +19957,7 @@
         <v>2812</v>
       </c>
       <c r="B2" t="s">
-        <v>3226</v>
+        <v>3235</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>2588</v>
@@ -20191,8 +20206,8 @@
       <c r="A21" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B21">
-        <v>150000</v>
+      <c r="B21" t="n">
+        <v>150000.0</v>
       </c>
       <c r="C21" s="22">
         <v>150000</v>
@@ -20642,7 +20657,7 @@
         <v>162</v>
       </c>
       <c r="B44" t="s">
-        <v>3228</v>
+        <v>3234</v>
       </c>
       <c r="C44" s="2">
         <v>10.007128</v>
@@ -20802,8 +20817,8 @@
       <c r="A53" s="11" t="s">
         <v>3106</v>
       </c>
-      <c r="B53">
-        <v>300000</v>
+      <c r="B53" t="n">
+        <v>300000.0</v>
       </c>
       <c r="C53" s="16">
         <v>0</v>
@@ -20953,8 +20968,8 @@
       <c r="A66" s="11" t="s">
         <v>3117</v>
       </c>
-      <c r="B66">
-        <v>362598000</v>
+      <c r="B66" t="n">
+        <v>3.62598E8</v>
       </c>
       <c r="C66" s="16">
         <v>362678000</v>
@@ -20964,8 +20979,8 @@
       <c r="A67" s="11" t="s">
         <v>3118</v>
       </c>
-      <c r="B67">
-        <v>652320000</v>
+      <c r="B67" t="n">
+        <v>6.5232E8</v>
       </c>
       <c r="C67" s="16">
         <v>651440000</v>
@@ -20975,8 +20990,8 @@
       <c r="A68" s="11" t="s">
         <v>3119</v>
       </c>
-      <c r="B68">
-        <v>79853000</v>
+      <c r="B68" t="n">
+        <v>7.9854E7</v>
       </c>
       <c r="C68" s="16">
         <v>79742000</v>
@@ -20986,8 +21001,8 @@
       <c r="A69" s="11" t="s">
         <v>3120</v>
       </c>
-      <c r="B69">
-        <v>66357001.549999997</v>
+      <c r="B69" t="n">
+        <v>6.63660019E7</v>
       </c>
       <c r="C69" s="16">
         <v>66237997.920000002</v>
@@ -20997,8 +21012,8 @@
       <c r="A70" s="11" t="s">
         <v>3121</v>
       </c>
-      <c r="B70">
-        <v>718677001.54999995</v>
+      <c r="B70" t="n">
+        <v>7.186860019E8</v>
       </c>
       <c r="C70" s="16">
         <v>717677997.91999996</v>
@@ -21008,8 +21023,8 @@
       <c r="A71" s="11" t="s">
         <v>3122</v>
       </c>
-      <c r="B71">
-        <v>16.081291459999999</v>
+      <c r="B71" t="n">
+        <v>15.82127563</v>
       </c>
       <c r="C71" s="16">
         <v>15.862095030000001</v>
@@ -22780,8 +22795,8 @@
       <c r="A13" s="52" t="s">
         <v>3042</v>
       </c>
-      <c r="B13">
-        <v>0</v>
+      <c r="B13" t="n">
+        <v>0.0</v>
       </c>
       <c r="C13" s="134">
         <v>0</v>
@@ -22791,8 +22806,8 @@
       <c r="A14" s="52" t="s">
         <v>3043</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" t="n">
+        <v>0.0</v>
       </c>
       <c r="C14" s="134">
         <v>0</v>
@@ -32268,9 +32283,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="B13" pane="topRight" sqref="B13"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32420,7 +32435,7 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>3230</v>
+        <v>3231</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -34871,7 +34886,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="B1" pane="topRight" sqref="B1:C2"/>
+      <selection activeCell="C1" pane="topRight" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35414,7 +35429,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="A10" pane="topRight" sqref="A10"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35503,7 +35518,7 @@
     <row customFormat="1" r="9" s="16" spans="1:8" x14ac:dyDescent="0.25"/>
     <row customFormat="1" r="10" s="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>3229</v>
+        <v>3228</v>
       </c>
       <c r="B10" s="129">
         <v>1</v>
@@ -35687,7 +35702,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
-      <selection activeCell="C12" pane="topRight" sqref="C12"/>
+      <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35724,7 +35739,7 @@
       <c r="A2" s="16" t="s">
         <v>2812</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="112" t="s">
         <v>2588</v>
       </c>
       <c r="C2" s="112" t="s">
@@ -35963,7 +35978,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:L65"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="topRight" state="frozen" topLeftCell="B1" xSplit="1"/>
       <selection activeCell="A34" sqref="A34"/>
       <selection activeCell="B1" pane="topRight" sqref="B1:B2"/>
@@ -35980,7 +35995,7 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>3225</v>
+        <v>3224</v>
       </c>
       <c r="C1" s="112" t="s">
         <v>6</v>
@@ -36014,8 +36029,8 @@
       <c r="A2" s="16" t="s">
         <v>2812</v>
       </c>
-      <c r="B2" t="s">
-        <v>3226</v>
+      <c r="B2" s="112" t="s">
+        <v>2588</v>
       </c>
       <c r="C2" s="112" t="s">
         <v>2588</v>
